--- a/Statewise GST Collection from2021 to 2026/bronze_gst_statewise_2025_26.xlsx
+++ b/Statewise GST Collection from2021 to 2026/bronze_gst_statewise_2025_26.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sai.enjeti\Downloads\GST Statistics Downloads 30th Nov 25\GST Statistics Downloads 30th Nov 25\Downloads\Tax Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Bricks Project\msme-financial-risk-analytics\Statewise GST Collection from2021 to 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F659E8A-C521-4682-9C73-24E9B2B8AF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A64AA-C9C3-43DA-A014-6DC6A4CD8F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GST_Revenue-All_India" sheetId="3" r:id="rId1"/>
     <sheet name="Collections-Statewise" sheetId="1" r:id="rId2"/>
     <sheet name="Refund-Statewise" sheetId="2" r:id="rId3"/>
+    <sheet name="collections_statewise_new" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Collections-Statewise'!$A$6:$U$46</definedName>
@@ -37,12 +38,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="73">
   <si>
     <t>(Rs. In Crore)</t>
   </si>
@@ -268,10 +272,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -463,10 +468,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,38 +497,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -544,20 +549,20 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,14 +571,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,12 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,6 +613,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -631,18 +648,7 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -972,23 +978,23 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
-    <col min="2" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>68</v>
       </c>
@@ -1002,17 +1008,17 @@
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="66"/>
       <c r="B7" s="63" t="s">
         <v>72</v>
@@ -1078,7 +1084,7 @@
       <c r="AS7" s="60"/>
       <c r="AT7" s="61"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="66"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -1216,12 +1222,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>129036.57</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v>45995.434636100006</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>175032.00463610003</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -1823,12 +1829,12 @@
       <c r="AS13" s="16"/>
       <c r="AT13" s="16"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>9482.6700000000019</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>62</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>9464.2860210999988</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>47</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>18946.956021099999</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -2430,7 +2436,7 @@
       <c r="AS18" s="16"/>
       <c r="AT18" s="16"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -2615,27 +2621,27 @@
         <v>156085.04861500004</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="F20" s="39"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="F22" s="39"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
     </row>
-    <row r="24" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>65</v>
       </c>
@@ -2672,52 +2678,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP54"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AQ46" sqref="AQ46"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="A1:AU46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.08984375" customWidth="1"/>
-    <col min="44" max="46" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.109375" customWidth="1"/>
+    <col min="44" max="46" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.08984375" customWidth="1"/>
-    <col min="49" max="51" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.109375" customWidth="1"/>
+    <col min="49" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.08984375" customWidth="1"/>
-    <col min="54" max="56" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.109375" customWidth="1"/>
+    <col min="54" max="56" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="15" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.08984375" customWidth="1"/>
-    <col min="59" max="61" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.109375" customWidth="1"/>
+    <col min="59" max="61" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.08984375" customWidth="1"/>
-    <col min="64" max="66" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.109375" customWidth="1"/>
+    <col min="64" max="66" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -2728,14 +2734,14 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="str">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="str">
         <f>'GST_Revenue-All_India'!A3</f>
         <v>Data upto : 30th Nov 2025</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="71"/>
     </row>
-    <row r="3" spans="1:63" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2745,18 +2751,18 @@
       <c r="BF3" s="48"/>
       <c r="BK3" s="48"/>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A5" s="72" t="s">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="63" t="str">
@@ -2824,9 +2830,9 @@
       <c r="AT5" s="60"/>
       <c r="AU5" s="61"/>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
@@ -2963,7 +2969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>492.31</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>616.1</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -3431,7 +3437,7 @@
         <v>2142.33</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>284.60999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -3743,7 +3749,7 @@
         <v>1315.27</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -3899,7 +3905,7 @@
         <v>8959.94</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>6255.64</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>3975.67</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -4367,7 +4373,7 @@
         <v>8819.33</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>10</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>1541.79</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>11</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>133.88</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>12</v>
       </c>
@@ -4835,7 +4841,7 @@
         <v>91.23</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>13</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>58.209999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>14</v>
       </c>
@@ -5147,7 +5153,7 @@
         <v>41.679999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>15</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>22.63</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>16</v>
       </c>
@@ -5459,7 +5465,7 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>17</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>135.44</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>18</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>1454.73</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>19</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>4916.33</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>20</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>2109.88</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>21</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>3870.0699999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>22</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>2158.1000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>23</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>2957.52</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>10649.859999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>323.40999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>27</v>
       </c>
@@ -7175,7 +7181,7 @@
         <v>29328.699999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>29</v>
       </c>
@@ -7331,7 +7337,7 @@
         <v>13711.32</v>
       </c>
     </row>
-    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>30</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>516.88</v>
       </c>
     </row>
-    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>31</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>32</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>2901.9900000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>33</v>
       </c>
@@ -7955,7 +7961,7 @@
         <v>10395.629999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>34</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>168.39999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>35</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>40.78</v>
       </c>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>36</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>4896.6399999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>37</v>
       </c>
@@ -8579,7 +8585,7 @@
         <v>2982.7700000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>38</v>
       </c>
@@ -8735,7 +8741,7 @@
         <v>45.78</v>
       </c>
     </row>
-    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>97</v>
       </c>
@@ -8891,7 +8897,7 @@
         <v>198.51999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>99</v>
       </c>
@@ -9047,11 +9053,11 @@
         <v>438.12</v>
       </c>
     </row>
-    <row r="46" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:68" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="71"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="23">
         <f t="shared" ref="C46:F46" si="13">SUM(C7:C45)</f>
         <v>293207.34000000003</v>
@@ -9253,7 +9259,7 @@
       <c r="BN46"/>
       <c r="BO46"/>
     </row>
-    <row r="47" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.3">
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -9320,11 +9326,11 @@
       <c r="BN47" s="16"/>
       <c r="BO47" s="16"/>
     </row>
-    <row r="48" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+    <row r="48" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="70"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="30">
         <f>H48+M48+R48+W48+AB48+AG48+AL48+AQ48+AV48+BA48+BF48+BK48</f>
         <v>0</v>
@@ -9495,7 +9501,7 @@
       <c r="BO48" s="16"/>
       <c r="BP48"/>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.3">
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -9562,11 +9568,11 @@
       <c r="BN49" s="16"/>
       <c r="BO49" s="16"/>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A50" s="69" t="s">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A50" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="69"/>
+      <c r="B50" s="67"/>
       <c r="C50" s="17">
         <f>C48+C46</f>
         <v>293207.34000000003</v>
@@ -9768,7 +9774,7 @@
       <c r="BN50" s="16"/>
       <c r="BO50" s="16"/>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.3">
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="39"/>
@@ -9835,14 +9841,14 @@
       <c r="BN51" s="16"/>
       <c r="BO51" s="16"/>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:67" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="29" t="s">
         <v>65</v>
       </c>
@@ -9852,7 +9858,7 @@
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B54" s="50" t="s">
         <v>67</v>
       </c>
@@ -9871,11 +9877,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
@@ -9887,6 +9888,11 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AG5:AK5"/>
     <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9900,52 +9906,52 @@
   </sheetPr>
   <dimension ref="A1:BO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A27" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="43" max="67" width="13.36328125" style="31" customWidth="1"/>
-    <col min="68" max="16384" width="11.453125" style="31"/>
+    <col min="5" max="5" width="15.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="43" max="67" width="13.33203125" style="31" customWidth="1"/>
+    <col min="68" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>70</v>
       </c>
@@ -9955,15 +9961,15 @@
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="str">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="str">
         <f>'GST_Revenue-All_India'!A3</f>
         <v>Data upto : 30th Nov 2025</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
     </row>
-    <row r="3" spans="1:63" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:63" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="32" t="s">
         <v>0</v>
       </c>
@@ -9973,31 +9979,31 @@
       <c r="BF3" s="48"/>
       <c r="BK3" s="48"/>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="C5" s="32"/>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="75" t="str">
+      <c r="C7" s="79" t="str">
         <f>'GST_Revenue-All_India'!B7</f>
         <v>Financial Year (up to the Month - Nov 2025)</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="59">
         <v>45748</v>
       </c>
@@ -10055,9 +10061,9 @@
       <c r="AT7" s="60"/>
       <c r="AU7" s="61"/>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="34" t="s">
         <v>2</v>
       </c>
@@ -10194,7 +10200,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>42.75</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -10506,7 +10512,7 @@
         <v>109.15</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>70.12</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -10818,7 +10824,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>130.49</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -11130,7 +11136,7 @@
         <v>474.78</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -11286,7 +11292,7 @@
         <v>139.63000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -11442,7 +11448,7 @@
         <v>172.85</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>510.14000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -11754,7 +11760,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -12066,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -12690,7 +12696,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -12846,7 +12852,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -13002,7 +13008,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>208.80999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>21</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>274.52999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>22</v>
       </c>
@@ -13626,7 +13632,7 @@
         <v>25.83</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>23</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>106.32</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>24</v>
       </c>
@@ -13938,7 +13944,7 @@
         <v>1572.81</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A33" s="56">
         <v>26</v>
       </c>
@@ -14094,7 +14100,7 @@
         <v>206.57999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>27</v>
       </c>
@@ -14250,7 +14256,7 @@
         <v>1425.53</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>29</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>1646.5200000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>30</v>
       </c>
@@ -14562,7 +14568,7 @@
         <v>43.14</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>31</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>32</v>
       </c>
@@ -14874,7 +14880,7 @@
         <v>48.83</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>33</v>
       </c>
@@ -15030,7 +15036,7 @@
         <v>1264.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>34</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>35</v>
       </c>
@@ -15342,7 +15348,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>36</v>
       </c>
@@ -15498,7 +15504,7 @@
         <v>646.58000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>37</v>
       </c>
@@ -15654,7 +15660,7 @@
         <v>277.11</v>
       </c>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>38</v>
       </c>
@@ -15810,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>97</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A46" s="47">
         <v>99</v>
       </c>
@@ -16122,193 +16128,193 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A47" s="79" t="s">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A47" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="79"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="14">
-        <f>SUM(C9:C46)</f>
+        <f t="shared" ref="C47:AU47" si="20">SUM(C9:C46)</f>
         <v>25138.080000000009</v>
       </c>
       <c r="D47" s="14">
-        <f>SUM(D9:D46)</f>
+        <f t="shared" si="20"/>
         <v>32061.319999999996</v>
       </c>
       <c r="E47" s="14">
-        <f>SUM(E9:E46)</f>
+        <f t="shared" si="20"/>
         <v>50522.720000000001</v>
       </c>
       <c r="F47" s="14">
-        <f>SUM(F9:F46)</f>
+        <f t="shared" si="20"/>
         <v>3608.1900000000005</v>
       </c>
       <c r="G47" s="14">
-        <f>SUM(G9:G46)</f>
+        <f t="shared" si="20"/>
         <v>111330.31000000003</v>
       </c>
       <c r="H47" s="14">
-        <f>SUM(H9:H46)</f>
+        <f t="shared" si="20"/>
         <v>3232.6</v>
       </c>
       <c r="I47" s="14">
-        <f>SUM(I9:I46)</f>
+        <f t="shared" si="20"/>
         <v>3847.6900000000005</v>
       </c>
       <c r="J47" s="14">
-        <f>SUM(J9:J46)</f>
+        <f t="shared" si="20"/>
         <v>5854.4000000000005</v>
       </c>
       <c r="K47" s="14">
-        <f>SUM(K9:K46)</f>
+        <f t="shared" si="20"/>
         <v>451.12999999999994</v>
       </c>
       <c r="L47" s="14">
-        <f>SUM(L9:L46)</f>
+        <f t="shared" si="20"/>
         <v>13385.82</v>
       </c>
       <c r="M47" s="14">
-        <f>SUM(M9:M46)</f>
+        <f t="shared" si="20"/>
         <v>4242.7100000000009</v>
       </c>
       <c r="N47" s="14">
-        <f>SUM(N9:N46)</f>
+        <f t="shared" si="20"/>
         <v>5390.6600000000017</v>
       </c>
       <c r="O47" s="14">
-        <f>SUM(O9:O46)</f>
+        <f t="shared" si="20"/>
         <v>8365.5199999999986</v>
       </c>
       <c r="P47" s="14">
-        <f>SUM(P9:P46)</f>
+        <f t="shared" si="20"/>
         <v>314.61000000000007</v>
       </c>
       <c r="Q47" s="14">
-        <f>SUM(Q9:Q46)</f>
+        <f t="shared" si="20"/>
         <v>18313.5</v>
       </c>
       <c r="R47" s="14">
-        <f>SUM(R9:R46)</f>
+        <f t="shared" si="20"/>
         <v>3193.73</v>
       </c>
       <c r="S47" s="14">
-        <f>SUM(S9:S46)</f>
+        <f t="shared" si="20"/>
         <v>3873.26</v>
       </c>
       <c r="T47" s="14">
-        <f>SUM(T9:T46)</f>
+        <f t="shared" si="20"/>
         <v>5372.2199999999993</v>
       </c>
       <c r="U47" s="14">
-        <f>SUM(U9:U46)</f>
+        <f t="shared" si="20"/>
         <v>203.53999999999996</v>
       </c>
       <c r="V47" s="14">
-        <f>SUM(V9:V46)</f>
+        <f t="shared" si="20"/>
         <v>12642.750000000004</v>
       </c>
       <c r="W47" s="14">
-        <f>SUM(W9:W46)</f>
+        <f t="shared" si="20"/>
         <v>3316.4400000000005</v>
       </c>
       <c r="X47" s="14">
-        <f>SUM(X9:X46)</f>
+        <f t="shared" si="20"/>
         <v>4541.8499999999985</v>
       </c>
       <c r="Y47" s="14">
-        <f>SUM(Y9:Y46)</f>
+        <f t="shared" si="20"/>
         <v>8646.51</v>
       </c>
       <c r="Z47" s="14">
-        <f>SUM(Z9:Z46)</f>
+        <f t="shared" si="20"/>
         <v>477.73999999999995</v>
       </c>
       <c r="AA47" s="14">
-        <f>SUM(AA9:AA46)</f>
+        <f t="shared" si="20"/>
         <v>16982.54</v>
       </c>
       <c r="AB47" s="14">
-        <f>SUM(AB9:AB46)</f>
+        <f t="shared" si="20"/>
         <v>2602.29</v>
       </c>
       <c r="AC47" s="14">
-        <f>SUM(AC9:AC46)</f>
+        <f t="shared" si="20"/>
         <v>3118.1099999999997</v>
       </c>
       <c r="AD47" s="14">
-        <f>SUM(AD9:AD46)</f>
+        <f t="shared" si="20"/>
         <v>5001.0999999999995</v>
       </c>
       <c r="AE47" s="14">
-        <f>SUM(AE9:AE46)</f>
+        <f t="shared" si="20"/>
         <v>291.90999999999997</v>
       </c>
       <c r="AF47" s="14">
-        <f>SUM(AF9:AF46)</f>
+        <f t="shared" si="20"/>
         <v>11013.409999999996</v>
       </c>
       <c r="AG47" s="14">
-        <f>SUM(AG9:AG46)</f>
+        <f t="shared" si="20"/>
         <v>3398.0900000000006</v>
       </c>
       <c r="AH47" s="14">
-        <f>SUM(AH9:AH46)</f>
+        <f t="shared" si="20"/>
         <v>4282.5599999999995</v>
       </c>
       <c r="AI47" s="14">
-        <f>SUM(AI9:AI46)</f>
+        <f t="shared" si="20"/>
         <v>7934.83</v>
       </c>
       <c r="AJ47" s="14">
-        <f>SUM(AJ9:AJ46)</f>
+        <f t="shared" si="20"/>
         <v>635.58000000000027</v>
       </c>
       <c r="AK47" s="14">
-        <f>SUM(AK9:AK46)</f>
+        <f t="shared" si="20"/>
         <v>16251.059999999998</v>
       </c>
       <c r="AL47" s="14">
-        <f>SUM(AL9:AL46)</f>
+        <f t="shared" si="20"/>
         <v>2972.85</v>
       </c>
       <c r="AM47" s="14">
-        <f>SUM(AM9:AM46)</f>
+        <f t="shared" si="20"/>
         <v>4289.2800000000007</v>
       </c>
       <c r="AN47" s="14">
-        <f>SUM(AN9:AN46)</f>
+        <f t="shared" si="20"/>
         <v>5504.3200000000006</v>
       </c>
       <c r="AO47" s="14">
-        <f>SUM(AO9:AO46)</f>
+        <f t="shared" si="20"/>
         <v>492.11</v>
       </c>
       <c r="AP47" s="14">
-        <f>SUM(AP9:AP46)</f>
+        <f t="shared" si="20"/>
         <v>13258.560000000001</v>
       </c>
       <c r="AQ47" s="14">
-        <f>SUM(AQ9:AQ46)</f>
+        <f t="shared" si="20"/>
         <v>2179.37</v>
       </c>
       <c r="AR47" s="14">
-        <f>SUM(AR9:AR46)</f>
+        <f t="shared" si="20"/>
         <v>2717.9100000000003</v>
       </c>
       <c r="AS47" s="14">
-        <f>SUM(AS9:AS46)</f>
+        <f t="shared" si="20"/>
         <v>3843.82</v>
       </c>
       <c r="AT47" s="14">
-        <f>SUM(AT9:AT46)</f>
+        <f t="shared" si="20"/>
         <v>741.57</v>
       </c>
       <c r="AU47" s="14">
-        <f>SUM(AU9:AU46)</f>
+        <f t="shared" si="20"/>
         <v>9482.6700000000019</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.3">
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -16375,11 +16381,11 @@
       <c r="BN48" s="49"/>
       <c r="BO48" s="49"/>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A49" s="80" t="s">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A49" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="80"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="51">
         <f>H49+M49+R49+W49+AB49+AG49+AL49+AQ49+AV49+BA49+BF49+BK49</f>
         <v>0</v>
@@ -16549,7 +16555,7 @@
       <c r="BN49" s="49"/>
       <c r="BO49" s="49"/>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="42"/>
@@ -16618,45 +16624,45 @@
       <c r="BN50" s="49"/>
       <c r="BO50" s="49"/>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A51" s="78" t="s">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A51" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="78"/>
+      <c r="B51" s="73"/>
       <c r="C51" s="17">
-        <f t="shared" ref="C51:K51" si="20">C49+C47</f>
+        <f t="shared" ref="C51:K51" si="21">C49+C47</f>
         <v>25138.080000000009</v>
       </c>
       <c r="D51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>32061.319999999996</v>
       </c>
       <c r="E51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>139117.04054840002</v>
       </c>
       <c r="F51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4766.7832632000009</v>
       </c>
       <c r="G51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>201083.22381160001</v>
       </c>
       <c r="H51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3232.6</v>
       </c>
       <c r="I51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3847.6900000000005</v>
       </c>
       <c r="J51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>19570.724117900001</v>
       </c>
       <c r="K51" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>689.57178629999999</v>
       </c>
       <c r="L51" s="17">
@@ -16664,19 +16670,19 @@
         <v>27340.585904200001</v>
       </c>
       <c r="M51" s="17">
-        <f t="shared" ref="M51:P51" si="21">M49+M47</f>
+        <f t="shared" ref="M51:P51" si="22">M49+M47</f>
         <v>4242.7100000000009</v>
       </c>
       <c r="N51" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5390.6600000000017</v>
       </c>
       <c r="O51" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17159.072205799999</v>
       </c>
       <c r="P51" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>417.12934850000011</v>
       </c>
       <c r="Q51" s="17">
@@ -16684,19 +16690,19 @@
         <v>27209.571554300001</v>
       </c>
       <c r="R51" s="17">
-        <f t="shared" ref="R51:U51" si="22">R49+R47</f>
+        <f t="shared" ref="R51:U51" si="23">R49+R47</f>
         <v>3193.73</v>
       </c>
       <c r="S51" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3873.26</v>
       </c>
       <c r="T51" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>18060.685436200001</v>
       </c>
       <c r="U51" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>362.96253919999992</v>
       </c>
       <c r="V51" s="17">
@@ -16704,19 +16710,19 @@
         <v>25490.637975400005</v>
       </c>
       <c r="W51" s="17">
-        <f t="shared" ref="W51:Z51" si="23">W49+W47</f>
+        <f t="shared" ref="W51:Z51" si="24">W49+W47</f>
         <v>3316.4400000000005</v>
       </c>
       <c r="X51" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4541.8499999999985</v>
       </c>
       <c r="Y51" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18660.794783600002</v>
       </c>
       <c r="Z51" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>627.31940220000001</v>
       </c>
       <c r="AA51" s="17">
@@ -16724,19 +16730,19 @@
         <v>27146.404185800002</v>
       </c>
       <c r="AB51" s="17">
-        <f t="shared" ref="AB51:AE51" si="24">AB49+AB47</f>
+        <f t="shared" ref="AB51:AE51" si="25">AB49+AB47</f>
         <v>2602.29</v>
       </c>
       <c r="AC51" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3118.1099999999997</v>
       </c>
       <c r="AD51" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>13221.926248399999</v>
       </c>
       <c r="AE51" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>416.85863509999996</v>
       </c>
       <c r="AF51" s="17">
@@ -16744,19 +16750,19 @@
         <v>19359.184883499998</v>
       </c>
       <c r="AG51" s="17">
-        <f t="shared" ref="AG51:AJ51" si="25">AG49+AG47</f>
+        <f t="shared" ref="AG51:AJ51" si="26">AG49+AG47</f>
         <v>3398.0900000000006</v>
       </c>
       <c r="AH51" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4282.5599999999995</v>
       </c>
       <c r="AI51" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>20176.997236299998</v>
       </c>
       <c r="AJ51" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>799.15802270000029</v>
       </c>
       <c r="AK51" s="17">
@@ -16764,19 +16770,19 @@
         <v>28656.805258999997</v>
       </c>
       <c r="AL51" s="17">
-        <f t="shared" ref="AL51:AO51" si="26">AL49+AL47</f>
+        <f t="shared" ref="AL51:AO51" si="27">AL49+AL47</f>
         <v>2972.85</v>
       </c>
       <c r="AM51" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4289.2800000000007</v>
       </c>
       <c r="AN51" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>18967.702019</v>
       </c>
       <c r="AO51" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>703.24600929999997</v>
       </c>
       <c r="AP51" s="17">
@@ -16784,19 +16790,19 @@
         <v>26933.078028300002</v>
       </c>
       <c r="AQ51" s="17">
-        <f t="shared" ref="AQ51:AT51" si="27">AQ49+AQ47</f>
+        <f t="shared" ref="AQ51:AT51" si="28">AQ49+AQ47</f>
         <v>2179.37</v>
       </c>
       <c r="AR51" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2717.9100000000003</v>
       </c>
       <c r="AS51" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13299.138501199999</v>
       </c>
       <c r="AT51" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>750.53751990000001</v>
       </c>
       <c r="AU51" s="17">
@@ -16824,7 +16830,7 @@
       <c r="BN51" s="49"/>
       <c r="BO51" s="49"/>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.3">
       <c r="AQ52" s="49"/>
       <c r="AR52" s="49"/>
       <c r="AS52" s="49"/>
@@ -16851,7 +16857,7 @@
       <c r="BN52" s="49"/>
       <c r="BO52" s="49"/>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.3">
       <c r="AQ53" s="49"/>
       <c r="AR53" s="49"/>
       <c r="AS53" s="49"/>
@@ -16878,7 +16884,7 @@
       <c r="BN53" s="49"/>
       <c r="BO53" s="49"/>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.3">
       <c r="AQ54" s="49"/>
       <c r="AR54" s="49"/>
       <c r="AS54" s="49"/>
@@ -16905,7 +16911,7 @@
       <c r="BN54" s="49"/>
       <c r="BO54" s="49"/>
     </row>
-    <row r="55" spans="1:67" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:67" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="38" t="s">
         <v>65</v>
       </c>
@@ -16935,7 +16941,7 @@
       <c r="BN55" s="49"/>
       <c r="BO55" s="49"/>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B56" s="52" t="s">
         <v>66</v>
       </c>
@@ -16961,11 +16967,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="AQ7:AU7"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:C4"/>
@@ -16977,9 +16978,5928 @@
     <mergeCell ref="AL7:AP7"/>
     <mergeCell ref="AG7:AK7"/>
     <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F075D671-B7FF-498B-B261-9911B643AC34}">
+  <dimension ref="A1:AU42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" s="82" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="82">
+        <v>45748</v>
+      </c>
+      <c r="M1" s="82">
+        <v>45778</v>
+      </c>
+      <c r="R1" s="82">
+        <v>45809</v>
+      </c>
+      <c r="W1" s="82">
+        <v>45839</v>
+      </c>
+      <c r="AB1" s="82">
+        <v>45870</v>
+      </c>
+      <c r="AG1" s="82">
+        <v>45901</v>
+      </c>
+      <c r="AL1" s="82">
+        <v>45931</v>
+      </c>
+      <c r="AQ1" s="82">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1444.5500000000002</v>
+      </c>
+      <c r="D3">
+        <v>1984.0600000000002</v>
+      </c>
+      <c r="E3">
+        <v>1433.8500000000001</v>
+      </c>
+      <c r="F3">
+        <v>84.14</v>
+      </c>
+      <c r="G3">
+        <v>4946.6000000000004</v>
+      </c>
+      <c r="H3">
+        <v>277.39</v>
+      </c>
+      <c r="I3">
+        <v>376.34</v>
+      </c>
+      <c r="J3">
+        <v>214.21</v>
+      </c>
+      <c r="K3">
+        <v>12.44</v>
+      </c>
+      <c r="L3">
+        <v>880.38000000000011</v>
+      </c>
+      <c r="M3">
+        <v>138.34</v>
+      </c>
+      <c r="N3">
+        <v>201.87</v>
+      </c>
+      <c r="O3">
+        <v>224.95</v>
+      </c>
+      <c r="P3">
+        <v>12.89</v>
+      </c>
+      <c r="Q3">
+        <v>578.05000000000007</v>
+      </c>
+      <c r="R3">
+        <v>156.78</v>
+      </c>
+      <c r="S3">
+        <v>214.19</v>
+      </c>
+      <c r="T3">
+        <v>181.14</v>
+      </c>
+      <c r="U3">
+        <v>13.85</v>
+      </c>
+      <c r="V3">
+        <v>565.96</v>
+      </c>
+      <c r="W3">
+        <v>153.07</v>
+      </c>
+      <c r="X3">
+        <v>224.07</v>
+      </c>
+      <c r="Y3">
+        <v>203.62</v>
+      </c>
+      <c r="Z3">
+        <v>17.95</v>
+      </c>
+      <c r="AA3">
+        <v>598.71</v>
+      </c>
+      <c r="AB3">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>235.04</v>
+      </c>
+      <c r="AD3">
+        <v>171.11</v>
+      </c>
+      <c r="AE3">
+        <v>13.54</v>
+      </c>
+      <c r="AF3">
+        <v>581.99</v>
+      </c>
+      <c r="AG3">
+        <v>234.64</v>
+      </c>
+      <c r="AH3">
+        <v>290.85000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>164.96</v>
+      </c>
+      <c r="AJ3">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AK3">
+        <v>698.66000000000008</v>
+      </c>
+      <c r="AL3">
+        <v>168.91</v>
+      </c>
+      <c r="AM3">
+        <v>228.04</v>
+      </c>
+      <c r="AN3">
+        <v>148.87</v>
+      </c>
+      <c r="AO3">
+        <v>4.72</v>
+      </c>
+      <c r="AP3">
+        <v>550.54</v>
+      </c>
+      <c r="AQ3">
+        <v>153.12</v>
+      </c>
+      <c r="AR3">
+        <v>213.66</v>
+      </c>
+      <c r="AS3">
+        <v>124.99</v>
+      </c>
+      <c r="AT3">
+        <v>0.54</v>
+      </c>
+      <c r="AU3">
+        <v>492.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1286.5899999999999</v>
+      </c>
+      <c r="D4">
+        <v>1786.0499999999997</v>
+      </c>
+      <c r="E4">
+        <v>3707.6800000000003</v>
+      </c>
+      <c r="F4">
+        <v>43.469999999999992</v>
+      </c>
+      <c r="G4">
+        <v>6823.79</v>
+      </c>
+      <c r="H4">
+        <v>232.78</v>
+      </c>
+      <c r="I4">
+        <v>315.41000000000003</v>
+      </c>
+      <c r="J4">
+        <v>540.51</v>
+      </c>
+      <c r="K4">
+        <v>5.76</v>
+      </c>
+      <c r="L4">
+        <v>1094.46</v>
+      </c>
+      <c r="M4">
+        <v>148.51</v>
+      </c>
+      <c r="N4">
+        <v>203.64</v>
+      </c>
+      <c r="O4">
+        <v>489.03</v>
+      </c>
+      <c r="P4">
+        <v>8.09</v>
+      </c>
+      <c r="Q4">
+        <v>849.27</v>
+      </c>
+      <c r="R4">
+        <v>153.22999999999999</v>
+      </c>
+      <c r="S4">
+        <v>213.67</v>
+      </c>
+      <c r="T4">
+        <v>527.82000000000005</v>
+      </c>
+      <c r="U4">
+        <v>7.73</v>
+      </c>
+      <c r="V4">
+        <v>902.45</v>
+      </c>
+      <c r="W4">
+        <v>172.62</v>
+      </c>
+      <c r="X4">
+        <v>244.12</v>
+      </c>
+      <c r="Y4">
+        <v>524.65</v>
+      </c>
+      <c r="Z4">
+        <v>8.4</v>
+      </c>
+      <c r="AA4">
+        <v>949.79</v>
+      </c>
+      <c r="AB4">
+        <v>147.9</v>
+      </c>
+      <c r="AC4">
+        <v>210.38</v>
+      </c>
+      <c r="AD4">
+        <v>506.56</v>
+      </c>
+      <c r="AE4">
+        <v>5.89</v>
+      </c>
+      <c r="AF4">
+        <v>870.7299999999999</v>
+      </c>
+      <c r="AG4">
+        <v>140.93</v>
+      </c>
+      <c r="AH4">
+        <v>195.32</v>
+      </c>
+      <c r="AI4">
+        <v>478.34</v>
+      </c>
+      <c r="AJ4">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AK4">
+        <v>819.06999999999994</v>
+      </c>
+      <c r="AL4">
+        <v>142.35</v>
+      </c>
+      <c r="AM4">
+        <v>194.38</v>
+      </c>
+      <c r="AN4">
+        <v>382.47</v>
+      </c>
+      <c r="AO4">
+        <v>2.72</v>
+      </c>
+      <c r="AP4">
+        <v>721.92000000000007</v>
+      </c>
+      <c r="AQ4">
+        <v>148.27000000000001</v>
+      </c>
+      <c r="AR4">
+        <v>209.13</v>
+      </c>
+      <c r="AS4">
+        <v>258.3</v>
+      </c>
+      <c r="AT4">
+        <v>0.4</v>
+      </c>
+      <c r="AU4">
+        <v>616.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4648.9799999999996</v>
+      </c>
+      <c r="D5">
+        <v>6554.6</v>
+      </c>
+      <c r="E5">
+        <v>7456.8700000000008</v>
+      </c>
+      <c r="F5">
+        <v>257.51</v>
+      </c>
+      <c r="G5">
+        <v>18917.96</v>
+      </c>
+      <c r="H5">
+        <v>767.72</v>
+      </c>
+      <c r="I5">
+        <v>1082.46</v>
+      </c>
+      <c r="J5">
+        <v>1213.08</v>
+      </c>
+      <c r="K5">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="L5">
+        <v>3103.8100000000004</v>
+      </c>
+      <c r="M5">
+        <v>554.4</v>
+      </c>
+      <c r="N5">
+        <v>797.47</v>
+      </c>
+      <c r="O5">
+        <v>1014.38</v>
+      </c>
+      <c r="P5">
+        <v>47.32</v>
+      </c>
+      <c r="Q5">
+        <v>2413.5700000000002</v>
+      </c>
+      <c r="R5">
+        <v>539.67999999999995</v>
+      </c>
+      <c r="S5">
+        <v>782.67</v>
+      </c>
+      <c r="T5">
+        <v>863.6</v>
+      </c>
+      <c r="U5">
+        <v>45.62</v>
+      </c>
+      <c r="V5">
+        <v>2231.5699999999997</v>
+      </c>
+      <c r="W5">
+        <v>589.54999999999995</v>
+      </c>
+      <c r="X5">
+        <v>815.84</v>
+      </c>
+      <c r="Y5">
+        <v>876.46</v>
+      </c>
+      <c r="Z5">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AA5">
+        <v>2322.5499999999997</v>
+      </c>
+      <c r="AB5">
+        <v>535.62</v>
+      </c>
+      <c r="AC5">
+        <v>750.37</v>
+      </c>
+      <c r="AD5">
+        <v>882.11</v>
+      </c>
+      <c r="AE5">
+        <v>31.28</v>
+      </c>
+      <c r="AF5">
+        <v>2199.38</v>
+      </c>
+      <c r="AG5">
+        <v>516.23</v>
+      </c>
+      <c r="AH5">
+        <v>738.05</v>
+      </c>
+      <c r="AI5">
+        <v>912.59</v>
+      </c>
+      <c r="AJ5">
+        <v>27.11</v>
+      </c>
+      <c r="AK5">
+        <v>2193.98</v>
+      </c>
+      <c r="AL5">
+        <v>588.33000000000004</v>
+      </c>
+      <c r="AM5">
+        <v>803.07</v>
+      </c>
+      <c r="AN5">
+        <v>899.31</v>
+      </c>
+      <c r="AO5">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="AP5">
+        <v>2310.77</v>
+      </c>
+      <c r="AQ5">
+        <v>557.45000000000005</v>
+      </c>
+      <c r="AR5">
+        <v>784.67</v>
+      </c>
+      <c r="AS5">
+        <v>795.34</v>
+      </c>
+      <c r="AT5">
+        <v>4.87</v>
+      </c>
+      <c r="AU5">
+        <v>2142.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>399.11</v>
+      </c>
+      <c r="D6">
+        <v>502.42</v>
+      </c>
+      <c r="E6">
+        <v>1181.3</v>
+      </c>
+      <c r="F6">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G6">
+        <v>2100.1400000000003</v>
+      </c>
+      <c r="H6">
+        <v>62.68</v>
+      </c>
+      <c r="I6">
+        <v>79.17</v>
+      </c>
+      <c r="J6">
+        <v>190.19</v>
+      </c>
+      <c r="K6">
+        <v>2.23</v>
+      </c>
+      <c r="L6">
+        <v>334.27</v>
+      </c>
+      <c r="M6">
+        <v>51.61</v>
+      </c>
+      <c r="N6">
+        <v>59.71</v>
+      </c>
+      <c r="O6">
+        <v>250.37</v>
+      </c>
+      <c r="P6">
+        <v>1.18</v>
+      </c>
+      <c r="Q6">
+        <v>362.87</v>
+      </c>
+      <c r="R6">
+        <v>43.97</v>
+      </c>
+      <c r="S6">
+        <v>58.62</v>
+      </c>
+      <c r="T6">
+        <v>111.96</v>
+      </c>
+      <c r="U6">
+        <v>5.04</v>
+      </c>
+      <c r="V6">
+        <v>219.59</v>
+      </c>
+      <c r="W6">
+        <v>47.01</v>
+      </c>
+      <c r="X6">
+        <v>59.52</v>
+      </c>
+      <c r="Y6">
+        <v>113.07</v>
+      </c>
+      <c r="Z6">
+        <v>1.53</v>
+      </c>
+      <c r="AA6">
+        <v>221.13</v>
+      </c>
+      <c r="AB6">
+        <v>46.09</v>
+      </c>
+      <c r="AC6">
+        <v>60.54</v>
+      </c>
+      <c r="AD6">
+        <v>105.49</v>
+      </c>
+      <c r="AE6">
+        <v>2.19</v>
+      </c>
+      <c r="AF6">
+        <v>214.31</v>
+      </c>
+      <c r="AG6">
+        <v>44.61</v>
+      </c>
+      <c r="AH6">
+        <v>54.87</v>
+      </c>
+      <c r="AI6">
+        <v>129.27000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>230.75</v>
+      </c>
+      <c r="AL6">
+        <v>50.48</v>
+      </c>
+      <c r="AM6">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="AN6">
+        <v>114.95</v>
+      </c>
+      <c r="AO6">
+        <v>1.86</v>
+      </c>
+      <c r="AP6">
+        <v>232.61</v>
+      </c>
+      <c r="AQ6">
+        <v>52.66</v>
+      </c>
+      <c r="AR6">
+        <v>64.67</v>
+      </c>
+      <c r="AS6">
+        <v>166</v>
+      </c>
+      <c r="AT6">
+        <v>1.28</v>
+      </c>
+      <c r="AU6">
+        <v>284.60999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2845.8999999999996</v>
+      </c>
+      <c r="D7">
+        <v>4242.6399999999994</v>
+      </c>
+      <c r="E7">
+        <v>6547.79</v>
+      </c>
+      <c r="F7">
+        <v>76.209999999999994</v>
+      </c>
+      <c r="G7">
+        <v>13712.54</v>
+      </c>
+      <c r="H7">
+        <v>541.21</v>
+      </c>
+      <c r="I7">
+        <v>720.7</v>
+      </c>
+      <c r="J7">
+        <v>1312.52</v>
+      </c>
+      <c r="K7">
+        <v>17.2</v>
+      </c>
+      <c r="L7">
+        <v>2591.63</v>
+      </c>
+      <c r="M7">
+        <v>346.9</v>
+      </c>
+      <c r="N7">
+        <v>518.64</v>
+      </c>
+      <c r="O7">
+        <v>728.71</v>
+      </c>
+      <c r="P7">
+        <v>11.11</v>
+      </c>
+      <c r="Q7">
+        <v>1605.36</v>
+      </c>
+      <c r="R7">
+        <v>360.45</v>
+      </c>
+      <c r="S7">
+        <v>549.19000000000005</v>
+      </c>
+      <c r="T7">
+        <v>778.36</v>
+      </c>
+      <c r="U7">
+        <v>11.43</v>
+      </c>
+      <c r="V7">
+        <v>1699.43</v>
+      </c>
+      <c r="W7">
+        <v>376.06</v>
+      </c>
+      <c r="X7">
+        <v>523.96</v>
+      </c>
+      <c r="Y7">
+        <v>861.6</v>
+      </c>
+      <c r="Z7">
+        <v>11.99</v>
+      </c>
+      <c r="AA7">
+        <v>1773.61</v>
+      </c>
+      <c r="AB7">
+        <v>295.42</v>
+      </c>
+      <c r="AC7">
+        <v>493.37</v>
+      </c>
+      <c r="AD7">
+        <v>647.38</v>
+      </c>
+      <c r="AE7">
+        <v>11.73</v>
+      </c>
+      <c r="AF7">
+        <v>1447.9</v>
+      </c>
+      <c r="AG7">
+        <v>301.81</v>
+      </c>
+      <c r="AH7">
+        <v>486.56</v>
+      </c>
+      <c r="AI7">
+        <v>876.84</v>
+      </c>
+      <c r="AJ7">
+        <v>9.75</v>
+      </c>
+      <c r="AK7">
+        <v>1674.96</v>
+      </c>
+      <c r="AL7">
+        <v>336.12</v>
+      </c>
+      <c r="AM7">
+        <v>506.49</v>
+      </c>
+      <c r="AN7">
+        <v>759.13</v>
+      </c>
+      <c r="AO7">
+        <v>2.64</v>
+      </c>
+      <c r="AP7">
+        <v>1604.38</v>
+      </c>
+      <c r="AQ7">
+        <v>287.93</v>
+      </c>
+      <c r="AR7">
+        <v>443.73</v>
+      </c>
+      <c r="AS7">
+        <v>583.25</v>
+      </c>
+      <c r="AT7">
+        <v>0.36</v>
+      </c>
+      <c r="AU7">
+        <v>1315.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>13221.78</v>
+      </c>
+      <c r="D8">
+        <v>16834.600000000002</v>
+      </c>
+      <c r="E8">
+        <v>49085.840000000004</v>
+      </c>
+      <c r="F8">
+        <v>4464.25</v>
+      </c>
+      <c r="G8">
+        <v>83606.47</v>
+      </c>
+      <c r="H8">
+        <v>1989.02</v>
+      </c>
+      <c r="I8">
+        <v>2514.6799999999998</v>
+      </c>
+      <c r="J8">
+        <v>8819.7099999999991</v>
+      </c>
+      <c r="K8">
+        <v>733.25</v>
+      </c>
+      <c r="L8">
+        <v>14056.66</v>
+      </c>
+      <c r="M8">
+        <v>1666.57</v>
+      </c>
+      <c r="N8">
+        <v>2080.5300000000002</v>
+      </c>
+      <c r="O8">
+        <v>5731.29</v>
+      </c>
+      <c r="P8">
+        <v>691.91</v>
+      </c>
+      <c r="Q8">
+        <v>10170.299999999999</v>
+      </c>
+      <c r="R8">
+        <v>1638.59</v>
+      </c>
+      <c r="S8">
+        <v>2119.5500000000002</v>
+      </c>
+      <c r="T8">
+        <v>5478.42</v>
+      </c>
+      <c r="U8">
+        <v>722.69</v>
+      </c>
+      <c r="V8">
+        <v>9959.2500000000018</v>
+      </c>
+      <c r="W8">
+        <v>1629.23</v>
+      </c>
+      <c r="X8">
+        <v>2049.8200000000002</v>
+      </c>
+      <c r="Y8">
+        <v>5823.34</v>
+      </c>
+      <c r="Z8">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>10148.689999999999</v>
+      </c>
+      <c r="AB8">
+        <v>1547.11</v>
+      </c>
+      <c r="AC8">
+        <v>1997.51</v>
+      </c>
+      <c r="AD8">
+        <v>5531.81</v>
+      </c>
+      <c r="AE8">
+        <v>604.76</v>
+      </c>
+      <c r="AF8">
+        <v>9681.19</v>
+      </c>
+      <c r="AG8">
+        <v>1546.29</v>
+      </c>
+      <c r="AH8">
+        <v>1937.91</v>
+      </c>
+      <c r="AI8">
+        <v>6398.14</v>
+      </c>
+      <c r="AJ8">
+        <v>690.98</v>
+      </c>
+      <c r="AK8">
+        <v>10573.32</v>
+      </c>
+      <c r="AL8">
+        <v>1746.75</v>
+      </c>
+      <c r="AM8">
+        <v>2262.38</v>
+      </c>
+      <c r="AN8">
+        <v>5819.33</v>
+      </c>
+      <c r="AO8">
+        <v>228.66</v>
+      </c>
+      <c r="AP8">
+        <v>10057.119999999999</v>
+      </c>
+      <c r="AQ8">
+        <v>1458.22</v>
+      </c>
+      <c r="AR8">
+        <v>1872.22</v>
+      </c>
+      <c r="AS8">
+        <v>5483.8</v>
+      </c>
+      <c r="AT8">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="AU8">
+        <v>8959.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>11486.36</v>
+      </c>
+      <c r="D9">
+        <v>13162.659999999998</v>
+      </c>
+      <c r="E9">
+        <v>31302.310000000005</v>
+      </c>
+      <c r="F9">
+        <v>630.71</v>
+      </c>
+      <c r="G9">
+        <v>56582.04</v>
+      </c>
+      <c r="H9">
+        <v>1754.01</v>
+      </c>
+      <c r="I9">
+        <v>2061.83</v>
+      </c>
+      <c r="J9">
+        <v>4380.3900000000003</v>
+      </c>
+      <c r="K9">
+        <v>63.9</v>
+      </c>
+      <c r="L9">
+        <v>8260.1299999999992</v>
+      </c>
+      <c r="M9">
+        <v>2361.59</v>
+      </c>
+      <c r="N9">
+        <v>2546.41</v>
+      </c>
+      <c r="O9">
+        <v>5381.24</v>
+      </c>
+      <c r="P9">
+        <v>76.75</v>
+      </c>
+      <c r="Q9">
+        <v>10365.99</v>
+      </c>
+      <c r="R9">
+        <v>1135.27</v>
+      </c>
+      <c r="S9">
+        <v>1315.91</v>
+      </c>
+      <c r="T9">
+        <v>3075.33</v>
+      </c>
+      <c r="U9">
+        <v>83.29</v>
+      </c>
+      <c r="V9">
+        <v>5609.8</v>
+      </c>
+      <c r="W9">
+        <v>1163.46</v>
+      </c>
+      <c r="X9">
+        <v>1423.82</v>
+      </c>
+      <c r="Y9">
+        <v>3386.14</v>
+      </c>
+      <c r="Z9">
+        <v>83.36</v>
+      </c>
+      <c r="AA9">
+        <v>6056.78</v>
+      </c>
+      <c r="AB9">
+        <v>1182.58</v>
+      </c>
+      <c r="AC9">
+        <v>1360.68</v>
+      </c>
+      <c r="AD9">
+        <v>3095.8</v>
+      </c>
+      <c r="AE9">
+        <v>85.99</v>
+      </c>
+      <c r="AF9">
+        <v>5725.05</v>
+      </c>
+      <c r="AG9">
+        <v>1220.5999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>1394.54</v>
+      </c>
+      <c r="AI9">
+        <v>3076.11</v>
+      </c>
+      <c r="AJ9">
+        <v>79.28</v>
+      </c>
+      <c r="AK9">
+        <v>5770.53</v>
+      </c>
+      <c r="AL9">
+        <v>1394.22</v>
+      </c>
+      <c r="AM9">
+        <v>1607.5</v>
+      </c>
+      <c r="AN9">
+        <v>5452.31</v>
+      </c>
+      <c r="AO9">
+        <v>84.09</v>
+      </c>
+      <c r="AP9">
+        <v>8538.1200000000008</v>
+      </c>
+      <c r="AQ9">
+        <v>1274.6300000000001</v>
+      </c>
+      <c r="AR9">
+        <v>1451.97</v>
+      </c>
+      <c r="AS9">
+        <v>3454.99</v>
+      </c>
+      <c r="AT9">
+        <v>74.05</v>
+      </c>
+      <c r="AU9">
+        <v>6255.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>9952.36</v>
+      </c>
+      <c r="D10">
+        <v>12780.16</v>
+      </c>
+      <c r="E10">
+        <v>13392.670000000002</v>
+      </c>
+      <c r="F10">
+        <v>979.01</v>
+      </c>
+      <c r="G10">
+        <v>37104.199999999997</v>
+      </c>
+      <c r="H10">
+        <v>1765.42</v>
+      </c>
+      <c r="I10">
+        <v>2091.1</v>
+      </c>
+      <c r="J10">
+        <v>2193.39</v>
+      </c>
+      <c r="K10">
+        <v>177.68</v>
+      </c>
+      <c r="L10">
+        <v>6227.59</v>
+      </c>
+      <c r="M10">
+        <v>1210.77</v>
+      </c>
+      <c r="N10">
+        <v>1576.27</v>
+      </c>
+      <c r="O10">
+        <v>1915.05</v>
+      </c>
+      <c r="P10">
+        <v>135.26</v>
+      </c>
+      <c r="Q10">
+        <v>4837.3500000000004</v>
+      </c>
+      <c r="R10">
+        <v>1125.74</v>
+      </c>
+      <c r="S10">
+        <v>1514.77</v>
+      </c>
+      <c r="T10">
+        <v>1739.2</v>
+      </c>
+      <c r="U10">
+        <v>142.36000000000001</v>
+      </c>
+      <c r="V10">
+        <v>4522.07</v>
+      </c>
+      <c r="W10">
+        <v>1220.08</v>
+      </c>
+      <c r="X10">
+        <v>1580.82</v>
+      </c>
+      <c r="Y10">
+        <v>1603.63</v>
+      </c>
+      <c r="Z10">
+        <v>159.58000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>4564.1099999999997</v>
+      </c>
+      <c r="AB10">
+        <v>1122.8599999999999</v>
+      </c>
+      <c r="AC10">
+        <v>1480.05</v>
+      </c>
+      <c r="AD10">
+        <v>1619.22</v>
+      </c>
+      <c r="AE10">
+        <v>119.45</v>
+      </c>
+      <c r="AF10">
+        <v>4341.58</v>
+      </c>
+      <c r="AG10">
+        <v>1132.8</v>
+      </c>
+      <c r="AH10">
+        <v>1456.78</v>
+      </c>
+      <c r="AI10">
+        <v>1575.62</v>
+      </c>
+      <c r="AJ10">
+        <v>140.54</v>
+      </c>
+      <c r="AK10">
+        <v>4305.74</v>
+      </c>
+      <c r="AL10">
+        <v>1188.32</v>
+      </c>
+      <c r="AM10">
+        <v>1532.19</v>
+      </c>
+      <c r="AN10">
+        <v>1540.95</v>
+      </c>
+      <c r="AO10">
+        <v>68.63</v>
+      </c>
+      <c r="AP10">
+        <v>4330.09</v>
+      </c>
+      <c r="AQ10">
+        <v>1186.3699999999999</v>
+      </c>
+      <c r="AR10">
+        <v>1548.18</v>
+      </c>
+      <c r="AS10">
+        <v>1205.6099999999999</v>
+      </c>
+      <c r="AT10">
+        <v>35.51</v>
+      </c>
+      <c r="AU10">
+        <v>3975.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>18233</v>
+      </c>
+      <c r="D11">
+        <v>23935.59</v>
+      </c>
+      <c r="E11">
+        <v>24830.17</v>
+      </c>
+      <c r="F11">
+        <v>11418.170000000002</v>
+      </c>
+      <c r="G11">
+        <v>78416.929999999993</v>
+      </c>
+      <c r="H11">
+        <v>3354.44</v>
+      </c>
+      <c r="I11">
+        <v>4315.05</v>
+      </c>
+      <c r="J11">
+        <v>4526.7299999999996</v>
+      </c>
+      <c r="K11">
+        <v>1404.27</v>
+      </c>
+      <c r="L11">
+        <v>13600.49</v>
+      </c>
+      <c r="M11">
+        <v>2100.42</v>
+      </c>
+      <c r="N11">
+        <v>2818.11</v>
+      </c>
+      <c r="O11">
+        <v>2813.95</v>
+      </c>
+      <c r="P11">
+        <v>1397.61</v>
+      </c>
+      <c r="Q11">
+        <v>9130.09</v>
+      </c>
+      <c r="R11">
+        <v>2159.36</v>
+      </c>
+      <c r="S11">
+        <v>2911.61</v>
+      </c>
+      <c r="T11">
+        <v>2603.71</v>
+      </c>
+      <c r="U11">
+        <v>1573.56</v>
+      </c>
+      <c r="V11">
+        <v>9248.24</v>
+      </c>
+      <c r="W11">
+        <v>2304.5300000000002</v>
+      </c>
+      <c r="X11">
+        <v>3127.52</v>
+      </c>
+      <c r="Y11">
+        <v>2928.12</v>
+      </c>
+      <c r="Z11">
+        <v>1399.35</v>
+      </c>
+      <c r="AA11">
+        <v>9759.52</v>
+      </c>
+      <c r="AB11">
+        <v>2125.94</v>
+      </c>
+      <c r="AC11">
+        <v>2735.7</v>
+      </c>
+      <c r="AD11">
+        <v>2785.79</v>
+      </c>
+      <c r="AE11">
+        <v>1438.6</v>
+      </c>
+      <c r="AF11">
+        <v>9086.0299999999988</v>
+      </c>
+      <c r="AG11">
+        <v>1976.21</v>
+      </c>
+      <c r="AH11">
+        <v>2587.41</v>
+      </c>
+      <c r="AI11">
+        <v>2952.33</v>
+      </c>
+      <c r="AJ11">
+        <v>1451.22</v>
+      </c>
+      <c r="AK11">
+        <v>8967.17</v>
+      </c>
+      <c r="AL11">
+        <v>2135.58</v>
+      </c>
+      <c r="AM11">
+        <v>2776.14</v>
+      </c>
+      <c r="AN11">
+        <v>3371.71</v>
+      </c>
+      <c r="AO11">
+        <v>1522.63</v>
+      </c>
+      <c r="AP11">
+        <v>9806.0600000000013</v>
+      </c>
+      <c r="AQ11">
+        <v>2076.52</v>
+      </c>
+      <c r="AR11">
+        <v>2664.05</v>
+      </c>
+      <c r="AS11">
+        <v>2847.83</v>
+      </c>
+      <c r="AT11">
+        <v>1230.93</v>
+      </c>
+      <c r="AU11">
+        <v>8819.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3910.88</v>
+      </c>
+      <c r="D12">
+        <v>6762.4500000000007</v>
+      </c>
+      <c r="E12">
+        <v>2348.11</v>
+      </c>
+      <c r="F12">
+        <v>1324.35</v>
+      </c>
+      <c r="G12">
+        <v>14345.79</v>
+      </c>
+      <c r="H12">
+        <v>729.09</v>
+      </c>
+      <c r="I12">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="J12">
+        <v>310.54000000000002</v>
+      </c>
+      <c r="K12">
+        <v>145.55000000000001</v>
+      </c>
+      <c r="L12">
+        <v>2289.7800000000002</v>
+      </c>
+      <c r="M12">
+        <v>418.75</v>
+      </c>
+      <c r="N12">
+        <v>764.94</v>
+      </c>
+      <c r="O12">
+        <v>514.78</v>
+      </c>
+      <c r="P12">
+        <v>172.04</v>
+      </c>
+      <c r="Q12">
+        <v>1870.51</v>
+      </c>
+      <c r="R12">
+        <v>447.92</v>
+      </c>
+      <c r="S12">
+        <v>842.07</v>
+      </c>
+      <c r="T12">
+        <v>238.43</v>
+      </c>
+      <c r="U12">
+        <v>180.48</v>
+      </c>
+      <c r="V12">
+        <v>1708.9</v>
+      </c>
+      <c r="W12">
+        <v>488.34</v>
+      </c>
+      <c r="X12">
+        <v>910.98</v>
+      </c>
+      <c r="Y12">
+        <v>224.2</v>
+      </c>
+      <c r="Z12">
+        <v>189.63</v>
+      </c>
+      <c r="AA12">
+        <v>1813.15</v>
+      </c>
+      <c r="AB12">
+        <v>464.74</v>
+      </c>
+      <c r="AC12">
+        <v>840.52</v>
+      </c>
+      <c r="AD12">
+        <v>245.5</v>
+      </c>
+      <c r="AE12">
+        <v>165.78</v>
+      </c>
+      <c r="AF12">
+        <v>1716.54</v>
+      </c>
+      <c r="AG12">
+        <v>454.25</v>
+      </c>
+      <c r="AH12">
+        <v>784.37</v>
+      </c>
+      <c r="AI12">
+        <v>351.11</v>
+      </c>
+      <c r="AJ12">
+        <v>163.16999999999999</v>
+      </c>
+      <c r="AK12">
+        <v>1752.9</v>
+      </c>
+      <c r="AL12">
+        <v>481.11</v>
+      </c>
+      <c r="AM12">
+        <v>750.31</v>
+      </c>
+      <c r="AN12">
+        <v>246.11</v>
+      </c>
+      <c r="AO12">
+        <v>174.69</v>
+      </c>
+      <c r="AP12">
+        <v>1652.2200000000003</v>
+      </c>
+      <c r="AQ12">
+        <v>426.68</v>
+      </c>
+      <c r="AR12">
+        <v>764.66</v>
+      </c>
+      <c r="AS12">
+        <v>217.44</v>
+      </c>
+      <c r="AT12">
+        <v>133.01</v>
+      </c>
+      <c r="AU12">
+        <v>1541.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>269.45000000000005</v>
+      </c>
+      <c r="D13">
+        <v>343.27</v>
+      </c>
+      <c r="E13">
+        <v>2337</v>
+      </c>
+      <c r="F13">
+        <v>1.55</v>
+      </c>
+      <c r="G13">
+        <v>2951.2700000000004</v>
+      </c>
+      <c r="H13">
+        <v>72.86</v>
+      </c>
+      <c r="I13">
+        <v>91.51</v>
+      </c>
+      <c r="J13">
+        <v>305.69</v>
+      </c>
+      <c r="K13">
+        <v>0.18</v>
+      </c>
+      <c r="L13">
+        <v>470.24</v>
+      </c>
+      <c r="M13">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="N13">
+        <v>42.64</v>
+      </c>
+      <c r="O13">
+        <v>344.59</v>
+      </c>
+      <c r="P13">
+        <v>0.05</v>
+      </c>
+      <c r="Q13">
+        <v>424.16</v>
+      </c>
+      <c r="R13">
+        <v>22.66</v>
+      </c>
+      <c r="S13">
+        <v>30.56</v>
+      </c>
+      <c r="T13">
+        <v>310.45</v>
+      </c>
+      <c r="U13">
+        <v>0.23</v>
+      </c>
+      <c r="V13">
+        <v>363.9</v>
+      </c>
+      <c r="W13">
+        <v>30.82</v>
+      </c>
+      <c r="X13">
+        <v>38.15</v>
+      </c>
+      <c r="Y13">
+        <v>331.89</v>
+      </c>
+      <c r="Z13">
+        <v>0.06</v>
+      </c>
+      <c r="AA13">
+        <v>400.92</v>
+      </c>
+      <c r="AB13">
+        <v>30.14</v>
+      </c>
+      <c r="AC13">
+        <v>47.41</v>
+      </c>
+      <c r="AD13">
+        <v>376.61</v>
+      </c>
+      <c r="AE13">
+        <v>0.09</v>
+      </c>
+      <c r="AF13">
+        <v>454.25</v>
+      </c>
+      <c r="AG13">
+        <v>24</v>
+      </c>
+      <c r="AH13">
+        <v>30.86</v>
+      </c>
+      <c r="AI13">
+        <v>341.32</v>
+      </c>
+      <c r="AJ13">
+        <v>0.03</v>
+      </c>
+      <c r="AK13">
+        <v>396.21</v>
+      </c>
+      <c r="AL13">
+        <v>25.56</v>
+      </c>
+      <c r="AM13">
+        <v>31.3</v>
+      </c>
+      <c r="AN13">
+        <v>250.35</v>
+      </c>
+      <c r="AO13">
+        <v>0.5</v>
+      </c>
+      <c r="AP13">
+        <v>307.70999999999998</v>
+      </c>
+      <c r="AQ13">
+        <v>26.53</v>
+      </c>
+      <c r="AR13">
+        <v>30.84</v>
+      </c>
+      <c r="AS13">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AT13">
+        <v>0.41</v>
+      </c>
+      <c r="AU13">
+        <v>133.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>403.73000000000008</v>
+      </c>
+      <c r="D14">
+        <v>497.22</v>
+      </c>
+      <c r="E14">
+        <v>112.94</v>
+      </c>
+      <c r="F14">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="G14">
+        <v>1015.5300000000001</v>
+      </c>
+      <c r="H14">
+        <v>140.59</v>
+      </c>
+      <c r="I14">
+        <v>163.25</v>
+      </c>
+      <c r="J14">
+        <v>27.87</v>
+      </c>
+      <c r="K14">
+        <v>0.44</v>
+      </c>
+      <c r="L14">
+        <v>332.15000000000003</v>
+      </c>
+      <c r="M14">
+        <v>60.02</v>
+      </c>
+      <c r="N14">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O14">
+        <v>12.18</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="R14">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="S14">
+        <v>46.71</v>
+      </c>
+      <c r="T14">
+        <v>7.46</v>
+      </c>
+      <c r="U14">
+        <v>0.16</v>
+      </c>
+      <c r="V14">
+        <v>88.21</v>
+      </c>
+      <c r="W14">
+        <v>36.17</v>
+      </c>
+      <c r="X14">
+        <v>42.67</v>
+      </c>
+      <c r="Y14">
+        <v>9.31</v>
+      </c>
+      <c r="Z14">
+        <v>0.11</v>
+      </c>
+      <c r="AA14">
+        <v>88.26</v>
+      </c>
+      <c r="AB14">
+        <v>35.53</v>
+      </c>
+      <c r="AC14">
+        <v>41.08</v>
+      </c>
+      <c r="AD14">
+        <v>11.62</v>
+      </c>
+      <c r="AE14">
+        <v>0.09</v>
+      </c>
+      <c r="AF14">
+        <v>88.320000000000007</v>
+      </c>
+      <c r="AG14">
+        <v>33.44</v>
+      </c>
+      <c r="AH14">
+        <v>44.55</v>
+      </c>
+      <c r="AI14">
+        <v>14.7</v>
+      </c>
+      <c r="AJ14">
+        <v>0.08</v>
+      </c>
+      <c r="AK14">
+        <v>92.77</v>
+      </c>
+      <c r="AL14">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="AM14">
+        <v>39.82</v>
+      </c>
+      <c r="AN14">
+        <v>11.81</v>
+      </c>
+      <c r="AO14">
+        <v>0.11</v>
+      </c>
+      <c r="AP14">
+        <v>83.79</v>
+      </c>
+      <c r="AQ14">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="AR14">
+        <v>41.04</v>
+      </c>
+      <c r="AS14">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="AT14">
+        <v>0.15</v>
+      </c>
+      <c r="AU14">
+        <v>91.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>211.78999999999996</v>
+      </c>
+      <c r="D15">
+        <v>266.7</v>
+      </c>
+      <c r="E15">
+        <v>88.64</v>
+      </c>
+      <c r="F15">
+        <v>11.63</v>
+      </c>
+      <c r="G15">
+        <v>578.76</v>
+      </c>
+      <c r="H15">
+        <v>46.72</v>
+      </c>
+      <c r="I15">
+        <v>57.71</v>
+      </c>
+      <c r="J15">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="K15">
+        <v>0.99</v>
+      </c>
+      <c r="L15">
+        <v>121.75</v>
+      </c>
+      <c r="M15">
+        <v>24.56</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="P15">
+        <v>1.72</v>
+      </c>
+      <c r="Q15">
+        <v>65.160000000000011</v>
+      </c>
+      <c r="R15">
+        <v>32.51</v>
+      </c>
+      <c r="S15">
+        <v>41.91</v>
+      </c>
+      <c r="T15">
+        <v>8.64</v>
+      </c>
+      <c r="U15">
+        <v>1.41</v>
+      </c>
+      <c r="V15">
+        <v>84.469999999999985</v>
+      </c>
+      <c r="W15">
+        <v>23.19</v>
+      </c>
+      <c r="X15">
+        <v>32.67</v>
+      </c>
+      <c r="Y15">
+        <v>11.69</v>
+      </c>
+      <c r="Z15">
+        <v>2.71</v>
+      </c>
+      <c r="AA15">
+        <v>70.259999999999991</v>
+      </c>
+      <c r="AB15">
+        <v>20.03</v>
+      </c>
+      <c r="AC15">
+        <v>24.09</v>
+      </c>
+      <c r="AD15">
+        <v>10.23</v>
+      </c>
+      <c r="AE15">
+        <v>2.1</v>
+      </c>
+      <c r="AF15">
+        <v>56.45000000000001</v>
+      </c>
+      <c r="AG15">
+        <v>20.83</v>
+      </c>
+      <c r="AH15">
+        <v>24.23</v>
+      </c>
+      <c r="AI15">
+        <v>9.89</v>
+      </c>
+      <c r="AJ15">
+        <v>1.43</v>
+      </c>
+      <c r="AK15">
+        <v>56.38</v>
+      </c>
+      <c r="AL15">
+        <v>23.56</v>
+      </c>
+      <c r="AM15">
+        <v>29.66</v>
+      </c>
+      <c r="AN15">
+        <v>11.64</v>
+      </c>
+      <c r="AO15">
+        <v>1.22</v>
+      </c>
+      <c r="AP15">
+        <v>66.08</v>
+      </c>
+      <c r="AQ15">
+        <v>20.39</v>
+      </c>
+      <c r="AR15">
+        <v>26.43</v>
+      </c>
+      <c r="AS15">
+        <v>11.34</v>
+      </c>
+      <c r="AT15">
+        <v>0.05</v>
+      </c>
+      <c r="AU15">
+        <v>58.209999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>194.45000000000002</v>
+      </c>
+      <c r="D16">
+        <v>248.60999999999999</v>
+      </c>
+      <c r="E16">
+        <v>63.679999999999993</v>
+      </c>
+      <c r="F16">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="G16">
+        <v>508.39</v>
+      </c>
+      <c r="H16">
+        <v>48.77</v>
+      </c>
+      <c r="I16">
+        <v>60.74</v>
+      </c>
+      <c r="J16">
+        <v>10.95</v>
+      </c>
+      <c r="K16">
+        <v>0.11</v>
+      </c>
+      <c r="L16">
+        <v>120.57000000000001</v>
+      </c>
+      <c r="M16">
+        <v>49.72</v>
+      </c>
+      <c r="N16">
+        <v>60.57</v>
+      </c>
+      <c r="O16">
+        <v>7.67</v>
+      </c>
+      <c r="P16">
+        <v>0.4</v>
+      </c>
+      <c r="Q16">
+        <v>118.36</v>
+      </c>
+      <c r="R16">
+        <v>13.93</v>
+      </c>
+      <c r="S16">
+        <v>18.79</v>
+      </c>
+      <c r="T16">
+        <v>7.08</v>
+      </c>
+      <c r="U16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V16">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="W16">
+        <v>14.25</v>
+      </c>
+      <c r="X16">
+        <v>20.51</v>
+      </c>
+      <c r="Y16">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="Z16">
+        <v>0.25</v>
+      </c>
+      <c r="AA16">
+        <v>43.390000000000008</v>
+      </c>
+      <c r="AB16">
+        <v>15</v>
+      </c>
+      <c r="AC16">
+        <v>19.02</v>
+      </c>
+      <c r="AD16">
+        <v>8.01</v>
+      </c>
+      <c r="AE16">
+        <v>0.06</v>
+      </c>
+      <c r="AF16">
+        <v>42.089999999999996</v>
+      </c>
+      <c r="AG16">
+        <v>12.03</v>
+      </c>
+      <c r="AH16">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="AI16">
+        <v>7.75</v>
+      </c>
+      <c r="AJ16">
+        <v>0.03</v>
+      </c>
+      <c r="AK16">
+        <v>37.5</v>
+      </c>
+      <c r="AL16">
+        <v>26.05</v>
+      </c>
+      <c r="AM16">
+        <v>31.33</v>
+      </c>
+      <c r="AN16">
+        <v>6.83</v>
+      </c>
+      <c r="AO16">
+        <v>0.72</v>
+      </c>
+      <c r="AP16">
+        <v>64.929999999999993</v>
+      </c>
+      <c r="AQ16">
+        <v>14.7</v>
+      </c>
+      <c r="AR16">
+        <v>19.96</v>
+      </c>
+      <c r="AS16">
+        <v>7.01</v>
+      </c>
+      <c r="AT16">
+        <v>0.01</v>
+      </c>
+      <c r="AU16">
+        <v>41.679999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>98.3</v>
+      </c>
+      <c r="D17">
+        <v>145.41999999999999</v>
+      </c>
+      <c r="E17">
+        <v>44.93</v>
+      </c>
+      <c r="F17">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G17">
+        <v>289.34999999999997</v>
+      </c>
+      <c r="H17">
+        <v>26.99</v>
+      </c>
+      <c r="I17">
+        <v>44.66</v>
+      </c>
+      <c r="J17">
+        <v>6.1</v>
+      </c>
+      <c r="K17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L17">
+        <v>77.819999999999979</v>
+      </c>
+      <c r="M17">
+        <v>10.02</v>
+      </c>
+      <c r="N17">
+        <v>13.36</v>
+      </c>
+      <c r="O17">
+        <v>5.28</v>
+      </c>
+      <c r="P17">
+        <v>0.04</v>
+      </c>
+      <c r="Q17">
+        <v>28.7</v>
+      </c>
+      <c r="R17">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="S17">
+        <v>14.7</v>
+      </c>
+      <c r="T17">
+        <v>5.35</v>
+      </c>
+      <c r="U17">
+        <v>0.04</v>
+      </c>
+      <c r="V17">
+        <v>30.04</v>
+      </c>
+      <c r="W17">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="X17">
+        <v>15.03</v>
+      </c>
+      <c r="Y17">
+        <v>5.56</v>
+      </c>
+      <c r="Z17">
+        <v>0.26</v>
+      </c>
+      <c r="AA17">
+        <v>30.799999999999997</v>
+      </c>
+      <c r="AB17">
+        <v>9.36</v>
+      </c>
+      <c r="AC17">
+        <v>13</v>
+      </c>
+      <c r="AD17">
+        <v>7.46</v>
+      </c>
+      <c r="AE17">
+        <v>0.04</v>
+      </c>
+      <c r="AF17">
+        <v>29.86</v>
+      </c>
+      <c r="AG17">
+        <v>8.81</v>
+      </c>
+      <c r="AH17">
+        <v>13.81</v>
+      </c>
+      <c r="AI17">
+        <v>6.71</v>
+      </c>
+      <c r="AJ17">
+        <v>0.05</v>
+      </c>
+      <c r="AK17">
+        <v>29.380000000000003</v>
+      </c>
+      <c r="AL17">
+        <v>14.95</v>
+      </c>
+      <c r="AM17">
+        <v>19.91</v>
+      </c>
+      <c r="AN17">
+        <v>5.09</v>
+      </c>
+      <c r="AO17">
+        <v>0.17</v>
+      </c>
+      <c r="AP17">
+        <v>40.120000000000005</v>
+      </c>
+      <c r="AQ17">
+        <v>8.27</v>
+      </c>
+      <c r="AR17">
+        <v>10.95</v>
+      </c>
+      <c r="AS17">
+        <v>3.38</v>
+      </c>
+      <c r="AT17">
+        <v>0.03</v>
+      </c>
+      <c r="AU17">
+        <v>22.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>293.91000000000003</v>
+      </c>
+      <c r="D18">
+        <v>377.23999999999995</v>
+      </c>
+      <c r="E18">
+        <v>117.28</v>
+      </c>
+      <c r="F18">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="G18">
+        <v>789.79000000000008</v>
+      </c>
+      <c r="H18">
+        <v>57.58</v>
+      </c>
+      <c r="I18">
+        <v>74.72</v>
+      </c>
+      <c r="J18">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="K18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L18">
+        <v>149.39000000000001</v>
+      </c>
+      <c r="M18">
+        <v>32.5</v>
+      </c>
+      <c r="N18">
+        <v>44.38</v>
+      </c>
+      <c r="O18">
+        <v>15.19</v>
+      </c>
+      <c r="P18">
+        <v>0.05</v>
+      </c>
+      <c r="Q18">
+        <v>92.11999999999999</v>
+      </c>
+      <c r="R18">
+        <v>32.51</v>
+      </c>
+      <c r="S18">
+        <v>43.41</v>
+      </c>
+      <c r="T18">
+        <v>11.3</v>
+      </c>
+      <c r="U18">
+        <v>0.04</v>
+      </c>
+      <c r="V18">
+        <v>87.259999999999991</v>
+      </c>
+      <c r="W18">
+        <v>37.96</v>
+      </c>
+      <c r="X18">
+        <v>46.72</v>
+      </c>
+      <c r="Y18">
+        <v>16.47</v>
+      </c>
+      <c r="Z18">
+        <v>0.11</v>
+      </c>
+      <c r="AA18">
+        <v>101.26</v>
+      </c>
+      <c r="AB18">
+        <v>32.74</v>
+      </c>
+      <c r="AC18">
+        <v>40.42</v>
+      </c>
+      <c r="AD18">
+        <v>13.3</v>
+      </c>
+      <c r="AE18">
+        <v>0.13</v>
+      </c>
+      <c r="AF18">
+        <v>86.589999999999989</v>
+      </c>
+      <c r="AG18">
+        <v>32.24</v>
+      </c>
+      <c r="AH18">
+        <v>40.07</v>
+      </c>
+      <c r="AI18">
+        <v>17.12</v>
+      </c>
+      <c r="AJ18">
+        <v>0.17</v>
+      </c>
+      <c r="AK18">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="AL18">
+        <v>38.58</v>
+      </c>
+      <c r="AM18">
+        <v>48.5</v>
+      </c>
+      <c r="AN18">
+        <v>11.84</v>
+      </c>
+      <c r="AO18">
+        <v>0.2</v>
+      </c>
+      <c r="AP18">
+        <v>99.12</v>
+      </c>
+      <c r="AQ18">
+        <v>29.8</v>
+      </c>
+      <c r="AR18">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="AS18">
+        <v>15.25</v>
+      </c>
+      <c r="AT18">
+        <v>0.38</v>
+      </c>
+      <c r="AU18">
+        <v>84.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>368.55999999999995</v>
+      </c>
+      <c r="D19">
+        <v>448.2</v>
+      </c>
+      <c r="E19">
+        <v>777.43</v>
+      </c>
+      <c r="F19">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="G19">
+        <v>1612.3400000000001</v>
+      </c>
+      <c r="H19">
+        <v>100.3</v>
+      </c>
+      <c r="I19">
+        <v>118.41</v>
+      </c>
+      <c r="J19">
+        <v>130.97999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.8</v>
+      </c>
+      <c r="L19">
+        <v>350.48999999999995</v>
+      </c>
+      <c r="M19">
+        <v>39.57</v>
+      </c>
+      <c r="N19">
+        <v>49.24</v>
+      </c>
+      <c r="O19">
+        <v>120.84</v>
+      </c>
+      <c r="P19">
+        <v>2.61</v>
+      </c>
+      <c r="Q19">
+        <v>212.26000000000002</v>
+      </c>
+      <c r="R19">
+        <v>28.06</v>
+      </c>
+      <c r="S19">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="T19">
+        <v>106.01</v>
+      </c>
+      <c r="U19">
+        <v>2.62</v>
+      </c>
+      <c r="V19">
+        <v>172.42000000000002</v>
+      </c>
+      <c r="W19">
+        <v>43.22</v>
+      </c>
+      <c r="X19">
+        <v>51.41</v>
+      </c>
+      <c r="Y19">
+        <v>78.16</v>
+      </c>
+      <c r="Z19">
+        <v>4.91</v>
+      </c>
+      <c r="AA19">
+        <v>177.7</v>
+      </c>
+      <c r="AB19">
+        <v>39.75</v>
+      </c>
+      <c r="AC19">
+        <v>47.21</v>
+      </c>
+      <c r="AD19">
+        <v>119.82</v>
+      </c>
+      <c r="AE19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AF19">
+        <v>209.02</v>
+      </c>
+      <c r="AG19">
+        <v>40.729999999999997</v>
+      </c>
+      <c r="AH19">
+        <v>51.11</v>
+      </c>
+      <c r="AI19">
+        <v>99.18</v>
+      </c>
+      <c r="AJ19">
+        <v>2.93</v>
+      </c>
+      <c r="AK19">
+        <v>193.95000000000002</v>
+      </c>
+      <c r="AL19">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="AM19">
+        <v>46.52</v>
+      </c>
+      <c r="AN19">
+        <v>75.41</v>
+      </c>
+      <c r="AO19">
+        <v>1.36</v>
+      </c>
+      <c r="AP19">
+        <v>161.06</v>
+      </c>
+      <c r="AQ19">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="AR19">
+        <v>48.57</v>
+      </c>
+      <c r="AS19">
+        <v>47.03</v>
+      </c>
+      <c r="AT19">
+        <v>0.68</v>
+      </c>
+      <c r="AU19">
+        <v>135.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>3521.7400000000002</v>
+      </c>
+      <c r="D20">
+        <v>4561.13</v>
+      </c>
+      <c r="E20">
+        <v>3365.15</v>
+      </c>
+      <c r="F20">
+        <v>943.05</v>
+      </c>
+      <c r="G20">
+        <v>12391.07</v>
+      </c>
+      <c r="H20">
+        <v>652.46</v>
+      </c>
+      <c r="I20">
+        <v>828.44</v>
+      </c>
+      <c r="J20">
+        <v>498.86</v>
+      </c>
+      <c r="K20">
+        <v>146.76</v>
+      </c>
+      <c r="L20">
+        <v>2126.5200000000004</v>
+      </c>
+      <c r="M20">
+        <v>403.73</v>
+      </c>
+      <c r="N20">
+        <v>545.44000000000005</v>
+      </c>
+      <c r="O20">
+        <v>553.29</v>
+      </c>
+      <c r="P20">
+        <v>89.99</v>
+      </c>
+      <c r="Q20">
+        <v>1592.45</v>
+      </c>
+      <c r="R20">
+        <v>392.15</v>
+      </c>
+      <c r="S20">
+        <v>522.15</v>
+      </c>
+      <c r="T20">
+        <v>358.18</v>
+      </c>
+      <c r="U20">
+        <v>132.04</v>
+      </c>
+      <c r="V20">
+        <v>1404.52</v>
+      </c>
+      <c r="W20">
+        <v>423.83</v>
+      </c>
+      <c r="X20">
+        <v>565.66999999999996</v>
+      </c>
+      <c r="Y20">
+        <v>365.94</v>
+      </c>
+      <c r="Z20">
+        <v>114.77</v>
+      </c>
+      <c r="AA20">
+        <v>1470.21</v>
+      </c>
+      <c r="AB20">
+        <v>444.29</v>
+      </c>
+      <c r="AC20">
+        <v>562.42999999999995</v>
+      </c>
+      <c r="AD20">
+        <v>396.72</v>
+      </c>
+      <c r="AE20">
+        <v>92.29</v>
+      </c>
+      <c r="AF20">
+        <v>1495.73</v>
+      </c>
+      <c r="AG20">
+        <v>376.84</v>
+      </c>
+      <c r="AH20">
+        <v>477.36</v>
+      </c>
+      <c r="AI20">
+        <v>432.64</v>
+      </c>
+      <c r="AJ20">
+        <v>119.75</v>
+      </c>
+      <c r="AK20">
+        <v>1406.5900000000001</v>
+      </c>
+      <c r="AL20">
+        <v>437.09</v>
+      </c>
+      <c r="AM20">
+        <v>541.88</v>
+      </c>
+      <c r="AN20">
+        <v>336.21</v>
+      </c>
+      <c r="AO20">
+        <v>125.14</v>
+      </c>
+      <c r="AP20">
+        <v>1440.3200000000002</v>
+      </c>
+      <c r="AQ20">
+        <v>391.35</v>
+      </c>
+      <c r="AR20">
+        <v>517.76</v>
+      </c>
+      <c r="AS20">
+        <v>423.31</v>
+      </c>
+      <c r="AT20">
+        <v>122.31</v>
+      </c>
+      <c r="AU20">
+        <v>1454.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>13803.23</v>
+      </c>
+      <c r="D21">
+        <v>16694.640000000003</v>
+      </c>
+      <c r="E21">
+        <v>13549.36</v>
+      </c>
+      <c r="F21">
+        <v>3534.86</v>
+      </c>
+      <c r="G21">
+        <v>47582.090000000004</v>
+      </c>
+      <c r="H21">
+        <v>2384.62</v>
+      </c>
+      <c r="I21">
+        <v>2860.33</v>
+      </c>
+      <c r="J21">
+        <v>2370.73</v>
+      </c>
+      <c r="K21">
+        <v>572.11</v>
+      </c>
+      <c r="L21">
+        <v>8187.79</v>
+      </c>
+      <c r="M21">
+        <v>1580.91</v>
+      </c>
+      <c r="N21">
+        <v>1970.12</v>
+      </c>
+      <c r="O21">
+        <v>2319.6999999999998</v>
+      </c>
+      <c r="P21">
+        <v>450.68</v>
+      </c>
+      <c r="Q21">
+        <v>6321.41</v>
+      </c>
+      <c r="R21">
+        <v>1564.6</v>
+      </c>
+      <c r="S21">
+        <v>1969.88</v>
+      </c>
+      <c r="T21">
+        <v>1496.09</v>
+      </c>
+      <c r="U21">
+        <v>520.14</v>
+      </c>
+      <c r="V21">
+        <v>5550.71</v>
+      </c>
+      <c r="W21">
+        <v>1727.71</v>
+      </c>
+      <c r="X21">
+        <v>2070.0500000000002</v>
+      </c>
+      <c r="Y21">
+        <v>1673.26</v>
+      </c>
+      <c r="Z21">
+        <v>424.47</v>
+      </c>
+      <c r="AA21">
+        <v>5895.4900000000007</v>
+      </c>
+      <c r="AB21">
+        <v>1615.47</v>
+      </c>
+      <c r="AC21">
+        <v>1931</v>
+      </c>
+      <c r="AD21">
+        <v>1491</v>
+      </c>
+      <c r="AE21">
+        <v>435.27</v>
+      </c>
+      <c r="AF21">
+        <v>5472.74</v>
+      </c>
+      <c r="AG21">
+        <v>1658.43</v>
+      </c>
+      <c r="AH21">
+        <v>1979.02</v>
+      </c>
+      <c r="AI21">
+        <v>1591.26</v>
+      </c>
+      <c r="AJ21">
+        <v>453.23</v>
+      </c>
+      <c r="AK21">
+        <v>5681.9400000000005</v>
+      </c>
+      <c r="AL21">
+        <v>1759.31</v>
+      </c>
+      <c r="AM21">
+        <v>2076.85</v>
+      </c>
+      <c r="AN21">
+        <v>1338.97</v>
+      </c>
+      <c r="AO21">
+        <v>380.55</v>
+      </c>
+      <c r="AP21">
+        <v>5555.68</v>
+      </c>
+      <c r="AQ21">
+        <v>1512.18</v>
+      </c>
+      <c r="AR21">
+        <v>1837.39</v>
+      </c>
+      <c r="AS21">
+        <v>1268.3499999999999</v>
+      </c>
+      <c r="AT21">
+        <v>298.41000000000003</v>
+      </c>
+      <c r="AU21">
+        <v>4916.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>4814.84</v>
+      </c>
+      <c r="D22">
+        <v>6238.8</v>
+      </c>
+      <c r="E22">
+        <v>8541.14</v>
+      </c>
+      <c r="F22">
+        <v>3920.3500000000008</v>
+      </c>
+      <c r="G22">
+        <v>23515.13</v>
+      </c>
+      <c r="H22">
+        <v>846.8</v>
+      </c>
+      <c r="I22">
+        <v>1085.76</v>
+      </c>
+      <c r="J22">
+        <v>1524.99</v>
+      </c>
+      <c r="K22">
+        <v>709.41</v>
+      </c>
+      <c r="L22">
+        <v>4166.96</v>
+      </c>
+      <c r="M22">
+        <v>537.96</v>
+      </c>
+      <c r="N22">
+        <v>744.42</v>
+      </c>
+      <c r="O22">
+        <v>958.46</v>
+      </c>
+      <c r="P22">
+        <v>665.96</v>
+      </c>
+      <c r="Q22">
+        <v>2906.8</v>
+      </c>
+      <c r="R22">
+        <v>610.29</v>
+      </c>
+      <c r="S22">
+        <v>781.24</v>
+      </c>
+      <c r="T22">
+        <v>1036.73</v>
+      </c>
+      <c r="U22">
+        <v>658.09</v>
+      </c>
+      <c r="V22">
+        <v>3086.3500000000004</v>
+      </c>
+      <c r="W22">
+        <v>570.41</v>
+      </c>
+      <c r="X22">
+        <v>752.18</v>
+      </c>
+      <c r="Y22">
+        <v>1183.97</v>
+      </c>
+      <c r="Z22">
+        <v>533.34</v>
+      </c>
+      <c r="AA22">
+        <v>3039.9</v>
+      </c>
+      <c r="AB22">
+        <v>586.84</v>
+      </c>
+      <c r="AC22">
+        <v>751.67</v>
+      </c>
+      <c r="AD22">
+        <v>1005.1</v>
+      </c>
+      <c r="AE22">
+        <v>476.36</v>
+      </c>
+      <c r="AF22">
+        <v>2819.9700000000003</v>
+      </c>
+      <c r="AG22">
+        <v>561.09</v>
+      </c>
+      <c r="AH22">
+        <v>701.01</v>
+      </c>
+      <c r="AI22">
+        <v>1097.79</v>
+      </c>
+      <c r="AJ22">
+        <v>507.05</v>
+      </c>
+      <c r="AK22">
+        <v>2866.94</v>
+      </c>
+      <c r="AL22">
+        <v>567.25</v>
+      </c>
+      <c r="AM22">
+        <v>736.6</v>
+      </c>
+      <c r="AN22">
+        <v>845.64</v>
+      </c>
+      <c r="AO22">
+        <v>368.84</v>
+      </c>
+      <c r="AP22">
+        <v>2518.33</v>
+      </c>
+      <c r="AQ22">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="AR22">
+        <v>685.92</v>
+      </c>
+      <c r="AS22">
+        <v>888.46</v>
+      </c>
+      <c r="AT22">
+        <v>1.3</v>
+      </c>
+      <c r="AU22">
+        <v>2109.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>9476.0499999999993</v>
+      </c>
+      <c r="D23">
+        <v>12184.54</v>
+      </c>
+      <c r="E23">
+        <v>12515.76</v>
+      </c>
+      <c r="F23">
+        <v>5765.32</v>
+      </c>
+      <c r="G23">
+        <v>39941.67</v>
+      </c>
+      <c r="H23">
+        <v>1547.68</v>
+      </c>
+      <c r="I23">
+        <v>1931.2</v>
+      </c>
+      <c r="J23">
+        <v>1793.59</v>
+      </c>
+      <c r="K23">
+        <v>901.68</v>
+      </c>
+      <c r="L23">
+        <v>6174.1500000000005</v>
+      </c>
+      <c r="M23">
+        <v>1139.1199999999999</v>
+      </c>
+      <c r="N23">
+        <v>1462.36</v>
+      </c>
+      <c r="O23">
+        <v>1662.26</v>
+      </c>
+      <c r="P23">
+        <v>844.73</v>
+      </c>
+      <c r="Q23">
+        <v>5108.4699999999993</v>
+      </c>
+      <c r="R23">
+        <v>1198.32</v>
+      </c>
+      <c r="S23">
+        <v>1506.2</v>
+      </c>
+      <c r="T23">
+        <v>1497.86</v>
+      </c>
+      <c r="U23">
+        <v>876.17</v>
+      </c>
+      <c r="V23">
+        <v>5078.55</v>
+      </c>
+      <c r="W23">
+        <v>1192.5999999999999</v>
+      </c>
+      <c r="X23">
+        <v>1527.45</v>
+      </c>
+      <c r="Y23">
+        <v>1428.68</v>
+      </c>
+      <c r="Z23">
+        <v>842.08</v>
+      </c>
+      <c r="AA23">
+        <v>4990.8100000000004</v>
+      </c>
+      <c r="AB23">
+        <v>1095.8399999999999</v>
+      </c>
+      <c r="AC23">
+        <v>1452.2</v>
+      </c>
+      <c r="AD23">
+        <v>1658.54</v>
+      </c>
+      <c r="AE23">
+        <v>823.85</v>
+      </c>
+      <c r="AF23">
+        <v>5030.43</v>
+      </c>
+      <c r="AG23">
+        <v>1040.77</v>
+      </c>
+      <c r="AH23">
+        <v>1340.61</v>
+      </c>
+      <c r="AI23">
+        <v>1582.38</v>
+      </c>
+      <c r="AJ23">
+        <v>901.12</v>
+      </c>
+      <c r="AK23">
+        <v>4864.88</v>
+      </c>
+      <c r="AL23">
+        <v>1187.05</v>
+      </c>
+      <c r="AM23">
+        <v>1548.27</v>
+      </c>
+      <c r="AN23">
+        <v>1558.46</v>
+      </c>
+      <c r="AO23">
+        <v>530.53</v>
+      </c>
+      <c r="AP23">
+        <v>4824.3099999999995</v>
+      </c>
+      <c r="AQ23">
+        <v>1074.67</v>
+      </c>
+      <c r="AR23">
+        <v>1416.25</v>
+      </c>
+      <c r="AS23">
+        <v>1333.99</v>
+      </c>
+      <c r="AT23">
+        <v>45.16</v>
+      </c>
+      <c r="AU23">
+        <v>3870.0699999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>5005.7700000000004</v>
+      </c>
+      <c r="D24">
+        <v>6007.7</v>
+      </c>
+      <c r="E24">
+        <v>8613.2000000000007</v>
+      </c>
+      <c r="F24">
+        <v>4362.24</v>
+      </c>
+      <c r="G24">
+        <v>23988.910000000003</v>
+      </c>
+      <c r="H24">
+        <v>888.58</v>
+      </c>
+      <c r="I24">
+        <v>944.83</v>
+      </c>
+      <c r="J24">
+        <v>1602.95</v>
+      </c>
+      <c r="K24">
+        <v>698.28</v>
+      </c>
+      <c r="L24">
+        <v>4134.6400000000003</v>
+      </c>
+      <c r="M24">
+        <v>537.13</v>
+      </c>
+      <c r="N24">
+        <v>714.08</v>
+      </c>
+      <c r="O24">
+        <v>972.45</v>
+      </c>
+      <c r="P24">
+        <v>667.51</v>
+      </c>
+      <c r="Q24">
+        <v>2891.17</v>
+      </c>
+      <c r="R24">
+        <v>640.33000000000004</v>
+      </c>
+      <c r="S24">
+        <v>746.47</v>
+      </c>
+      <c r="T24">
+        <v>1204.06</v>
+      </c>
+      <c r="U24">
+        <v>685.2</v>
+      </c>
+      <c r="V24">
+        <v>3276.0600000000004</v>
+      </c>
+      <c r="W24">
+        <v>635.89</v>
+      </c>
+      <c r="X24">
+        <v>774.08</v>
+      </c>
+      <c r="Y24">
+        <v>1064.78</v>
+      </c>
+      <c r="Z24">
+        <v>704.84</v>
+      </c>
+      <c r="AA24">
+        <v>3179.59</v>
+      </c>
+      <c r="AB24">
+        <v>573.78</v>
+      </c>
+      <c r="AC24">
+        <v>720.33</v>
+      </c>
+      <c r="AD24">
+        <v>943.6</v>
+      </c>
+      <c r="AE24">
+        <v>571.71</v>
+      </c>
+      <c r="AF24">
+        <v>2809.42</v>
+      </c>
+      <c r="AG24">
+        <v>569.57000000000005</v>
+      </c>
+      <c r="AH24">
+        <v>681.29</v>
+      </c>
+      <c r="AI24">
+        <v>1095.6500000000001</v>
+      </c>
+      <c r="AJ24">
+        <v>595.16999999999996</v>
+      </c>
+      <c r="AK24">
+        <v>2941.6800000000003</v>
+      </c>
+      <c r="AL24">
+        <v>593.04999999999995</v>
+      </c>
+      <c r="AM24">
+        <v>712.88</v>
+      </c>
+      <c r="AN24">
+        <v>894.88</v>
+      </c>
+      <c r="AO24">
+        <v>397.44</v>
+      </c>
+      <c r="AP24">
+        <v>2598.25</v>
+      </c>
+      <c r="AQ24">
+        <v>567.44000000000005</v>
+      </c>
+      <c r="AR24">
+        <v>713.74</v>
+      </c>
+      <c r="AS24">
+        <v>834.83</v>
+      </c>
+      <c r="AT24">
+        <v>42.09</v>
+      </c>
+      <c r="AU24">
+        <v>2158.1000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>7813.41</v>
+      </c>
+      <c r="D25">
+        <v>9701.409999999998</v>
+      </c>
+      <c r="E25">
+        <v>8701.619999999999</v>
+      </c>
+      <c r="F25">
+        <v>4910.5599999999995</v>
+      </c>
+      <c r="G25">
+        <v>31127</v>
+      </c>
+      <c r="H25">
+        <v>1378.22</v>
+      </c>
+      <c r="I25">
+        <v>1682.49</v>
+      </c>
+      <c r="J25">
+        <v>1508.13</v>
+      </c>
+      <c r="K25">
+        <v>732.89</v>
+      </c>
+      <c r="L25">
+        <v>5301.7300000000005</v>
+      </c>
+      <c r="M25">
+        <v>866.81</v>
+      </c>
+      <c r="N25">
+        <v>1101.58</v>
+      </c>
+      <c r="O25">
+        <v>1051.49</v>
+      </c>
+      <c r="P25">
+        <v>713.37</v>
+      </c>
+      <c r="Q25">
+        <v>3733.25</v>
+      </c>
+      <c r="R25">
+        <v>927.69</v>
+      </c>
+      <c r="S25">
+        <v>1167.6199999999999</v>
+      </c>
+      <c r="T25">
+        <v>1078.32</v>
+      </c>
+      <c r="U25">
+        <v>715.43</v>
+      </c>
+      <c r="V25">
+        <v>3889.06</v>
+      </c>
+      <c r="W25">
+        <v>1105.8399999999999</v>
+      </c>
+      <c r="X25">
+        <v>1362.49</v>
+      </c>
+      <c r="Y25">
+        <v>1171.1400000000001</v>
+      </c>
+      <c r="Z25">
+        <v>690.02</v>
+      </c>
+      <c r="AA25">
+        <v>4329.49</v>
+      </c>
+      <c r="AB25">
+        <v>904.58</v>
+      </c>
+      <c r="AC25">
+        <v>1129.1300000000001</v>
+      </c>
+      <c r="AD25">
+        <v>1052.99</v>
+      </c>
+      <c r="AE25">
+        <v>644.16</v>
+      </c>
+      <c r="AF25">
+        <v>3730.8599999999997</v>
+      </c>
+      <c r="AG25">
+        <v>847.53</v>
+      </c>
+      <c r="AH25">
+        <v>1057.81</v>
+      </c>
+      <c r="AI25">
+        <v>1135.81</v>
+      </c>
+      <c r="AJ25">
+        <v>695.4</v>
+      </c>
+      <c r="AK25">
+        <v>3736.5499999999997</v>
+      </c>
+      <c r="AL25">
+        <v>878.56</v>
+      </c>
+      <c r="AM25">
+        <v>1079.3900000000001</v>
+      </c>
+      <c r="AN25">
+        <v>952.89</v>
+      </c>
+      <c r="AO25">
+        <v>537.70000000000005</v>
+      </c>
+      <c r="AP25">
+        <v>3448.54</v>
+      </c>
+      <c r="AQ25">
+        <v>904.18</v>
+      </c>
+      <c r="AR25">
+        <v>1120.9000000000001</v>
+      </c>
+      <c r="AS25">
+        <v>750.85</v>
+      </c>
+      <c r="AT25">
+        <v>181.59</v>
+      </c>
+      <c r="AU25">
+        <v>2957.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>27258.71</v>
+      </c>
+      <c r="D26">
+        <v>32514.33</v>
+      </c>
+      <c r="E26">
+        <v>29854.080000000002</v>
+      </c>
+      <c r="F26">
+        <v>4201.33</v>
+      </c>
+      <c r="G26">
+        <v>93828.45</v>
+      </c>
+      <c r="H26">
+        <v>4581.6899999999996</v>
+      </c>
+      <c r="I26">
+        <v>5280.76</v>
+      </c>
+      <c r="J26">
+        <v>4524.95</v>
+      </c>
+      <c r="K26">
+        <v>582.23</v>
+      </c>
+      <c r="L26">
+        <v>14969.630000000001</v>
+      </c>
+      <c r="M26">
+        <v>3199.58</v>
+      </c>
+      <c r="N26">
+        <v>3897.65</v>
+      </c>
+      <c r="O26">
+        <v>4015.84</v>
+      </c>
+      <c r="P26">
+        <v>623.74</v>
+      </c>
+      <c r="Q26">
+        <v>11736.81</v>
+      </c>
+      <c r="R26">
+        <v>3141.5</v>
+      </c>
+      <c r="S26">
+        <v>3790.78</v>
+      </c>
+      <c r="T26">
+        <v>3558.62</v>
+      </c>
+      <c r="U26">
+        <v>549.22</v>
+      </c>
+      <c r="V26">
+        <v>11040.12</v>
+      </c>
+      <c r="W26">
+        <v>3333.67</v>
+      </c>
+      <c r="X26">
+        <v>4005.93</v>
+      </c>
+      <c r="Y26">
+        <v>3500.79</v>
+      </c>
+      <c r="Z26">
+        <v>518.02</v>
+      </c>
+      <c r="AA26">
+        <v>11358.41</v>
+      </c>
+      <c r="AB26">
+        <v>3130.42</v>
+      </c>
+      <c r="AC26">
+        <v>3881.59</v>
+      </c>
+      <c r="AD26">
+        <v>3470.11</v>
+      </c>
+      <c r="AE26">
+        <v>509.7</v>
+      </c>
+      <c r="AF26">
+        <v>10991.820000000002</v>
+      </c>
+      <c r="AG26">
+        <v>3058</v>
+      </c>
+      <c r="AH26">
+        <v>3693.41</v>
+      </c>
+      <c r="AI26">
+        <v>3667.77</v>
+      </c>
+      <c r="AJ26">
+        <v>549.75</v>
+      </c>
+      <c r="AK26">
+        <v>10968.93</v>
+      </c>
+      <c r="AL26">
+        <v>3475.86</v>
+      </c>
+      <c r="AM26">
+        <v>4139.42</v>
+      </c>
+      <c r="AN26">
+        <v>3997.57</v>
+      </c>
+      <c r="AO26">
+        <v>500.02</v>
+      </c>
+      <c r="AP26">
+        <v>12112.87</v>
+      </c>
+      <c r="AQ26">
+        <v>3337.99</v>
+      </c>
+      <c r="AR26">
+        <v>3824.79</v>
+      </c>
+      <c r="AS26">
+        <v>3118.43</v>
+      </c>
+      <c r="AT26">
+        <v>368.65</v>
+      </c>
+      <c r="AU26">
+        <v>10649.859999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>0.02</v>
+      </c>
+      <c r="D27">
+        <v>0.02</v>
+      </c>
+      <c r="E27">
+        <v>0.11</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.08</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.08</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0.01</v>
+      </c>
+      <c r="X27">
+        <v>0.01</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0.02</v>
+      </c>
+      <c r="AB27">
+        <v>0.01</v>
+      </c>
+      <c r="AC27">
+        <v>0.01</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0.02</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0.02</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0.02</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0.01</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.01</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>428.71999999999997</v>
+      </c>
+      <c r="D28">
+        <v>514.79</v>
+      </c>
+      <c r="E28">
+        <v>2161.9899999999998</v>
+      </c>
+      <c r="F28">
+        <v>8.5799999999999983</v>
+      </c>
+      <c r="G28">
+        <v>3114.0799999999995</v>
+      </c>
+      <c r="H28">
+        <v>71.5</v>
+      </c>
+      <c r="I28">
+        <v>85.31</v>
+      </c>
+      <c r="J28">
+        <v>338.45</v>
+      </c>
+      <c r="K28">
+        <v>0.21</v>
+      </c>
+      <c r="L28">
+        <v>495.46999999999997</v>
+      </c>
+      <c r="M28">
+        <v>44.9</v>
+      </c>
+      <c r="N28">
+        <v>56.12</v>
+      </c>
+      <c r="O28">
+        <v>249.71</v>
+      </c>
+      <c r="P28">
+        <v>0.18</v>
+      </c>
+      <c r="Q28">
+        <v>350.91</v>
+      </c>
+      <c r="R28">
+        <v>48.53</v>
+      </c>
+      <c r="S28">
+        <v>59.03</v>
+      </c>
+      <c r="T28">
+        <v>302.68</v>
+      </c>
+      <c r="U28">
+        <v>0.19</v>
+      </c>
+      <c r="V28">
+        <v>410.43</v>
+      </c>
+      <c r="W28">
+        <v>58.45</v>
+      </c>
+      <c r="X28">
+        <v>64.03</v>
+      </c>
+      <c r="Y28">
+        <v>271.86</v>
+      </c>
+      <c r="Z28">
+        <v>0.53</v>
+      </c>
+      <c r="AA28">
+        <v>394.87</v>
+      </c>
+      <c r="AB28">
+        <v>49.69</v>
+      </c>
+      <c r="AC28">
+        <v>61.65</v>
+      </c>
+      <c r="AD28">
+        <v>251.13</v>
+      </c>
+      <c r="AE28">
+        <v>2.8</v>
+      </c>
+      <c r="AF28">
+        <v>365.27000000000004</v>
+      </c>
+      <c r="AG28">
+        <v>52.5</v>
+      </c>
+      <c r="AH28">
+        <v>63.82</v>
+      </c>
+      <c r="AI28">
+        <v>250.04</v>
+      </c>
+      <c r="AJ28">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AK28">
+        <v>368.64</v>
+      </c>
+      <c r="AL28">
+        <v>47.08</v>
+      </c>
+      <c r="AM28">
+        <v>58.21</v>
+      </c>
+      <c r="AN28">
+        <v>297.52</v>
+      </c>
+      <c r="AO28">
+        <v>2.27</v>
+      </c>
+      <c r="AP28">
+        <v>405.07999999999993</v>
+      </c>
+      <c r="AQ28">
+        <v>56.07</v>
+      </c>
+      <c r="AR28">
+        <v>66.62</v>
+      </c>
+      <c r="AS28">
+        <v>200.6</v>
+      </c>
+      <c r="AT28">
+        <v>0.12</v>
+      </c>
+      <c r="AU28">
+        <v>323.40999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>70132.509999999995</v>
+      </c>
+      <c r="D29">
+        <v>80698.559999999998</v>
+      </c>
+      <c r="E29">
+        <v>86818.209999999992</v>
+      </c>
+      <c r="F29">
+        <v>14685.609999999999</v>
+      </c>
+      <c r="G29">
+        <v>252334.89</v>
+      </c>
+      <c r="H29">
+        <v>11610.13</v>
+      </c>
+      <c r="I29">
+        <v>13176.54</v>
+      </c>
+      <c r="J29">
+        <v>14489.93</v>
+      </c>
+      <c r="K29">
+        <v>2368.83</v>
+      </c>
+      <c r="L29">
+        <v>41645.43</v>
+      </c>
+      <c r="M29">
+        <v>8232.6</v>
+      </c>
+      <c r="N29">
+        <v>9357.24</v>
+      </c>
+      <c r="O29">
+        <v>11646.26</v>
+      </c>
+      <c r="P29">
+        <v>2294.1999999999998</v>
+      </c>
+      <c r="Q29">
+        <v>31530.3</v>
+      </c>
+      <c r="R29">
+        <v>8477.11</v>
+      </c>
+      <c r="S29">
+        <v>9839.2099999999991</v>
+      </c>
+      <c r="T29">
+        <v>9931.64</v>
+      </c>
+      <c r="U29">
+        <v>2304.7399999999998</v>
+      </c>
+      <c r="V29">
+        <v>30552.699999999997</v>
+      </c>
+      <c r="W29">
+        <v>8265.51</v>
+      </c>
+      <c r="X29">
+        <v>9415.67</v>
+      </c>
+      <c r="Y29">
+        <v>10869.94</v>
+      </c>
+      <c r="Z29">
+        <v>2039.36</v>
+      </c>
+      <c r="AA29">
+        <v>30590.480000000003</v>
+      </c>
+      <c r="AB29">
+        <v>7840.27</v>
+      </c>
+      <c r="AC29">
+        <v>9400</v>
+      </c>
+      <c r="AD29">
+        <v>9505.44</v>
+      </c>
+      <c r="AE29">
+        <v>2153.9299999999998</v>
+      </c>
+      <c r="AF29">
+        <v>28899.64</v>
+      </c>
+      <c r="AG29">
+        <v>7965.73</v>
+      </c>
+      <c r="AH29">
+        <v>9239.64</v>
+      </c>
+      <c r="AI29">
+        <v>8767.6299999999992</v>
+      </c>
+      <c r="AJ29">
+        <v>1789.31</v>
+      </c>
+      <c r="AK29">
+        <v>27762.31</v>
+      </c>
+      <c r="AL29">
+        <v>8877.77</v>
+      </c>
+      <c r="AM29">
+        <v>10347.02</v>
+      </c>
+      <c r="AN29">
+        <v>11788.47</v>
+      </c>
+      <c r="AO29">
+        <v>1012.07</v>
+      </c>
+      <c r="AP29">
+        <v>32025.33</v>
+      </c>
+      <c r="AQ29">
+        <v>8863.39</v>
+      </c>
+      <c r="AR29">
+        <v>9923.24</v>
+      </c>
+      <c r="AS29">
+        <v>9818.9</v>
+      </c>
+      <c r="AT29">
+        <v>723.17</v>
+      </c>
+      <c r="AU29">
+        <v>29328.699999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>26719.190000000002</v>
+      </c>
+      <c r="D30">
+        <v>32903.26</v>
+      </c>
+      <c r="E30">
+        <v>44887.829999999994</v>
+      </c>
+      <c r="F30">
+        <v>10784.439999999999</v>
+      </c>
+      <c r="G30">
+        <v>115294.72</v>
+      </c>
+      <c r="H30">
+        <v>4281.24</v>
+      </c>
+      <c r="I30">
+        <v>5569.77</v>
+      </c>
+      <c r="J30">
+        <v>6696.87</v>
+      </c>
+      <c r="K30">
+        <v>1267.43</v>
+      </c>
+      <c r="L30">
+        <v>17815.310000000001</v>
+      </c>
+      <c r="M30">
+        <v>3121</v>
+      </c>
+      <c r="N30">
+        <v>3792.1</v>
+      </c>
+      <c r="O30">
+        <v>6039.23</v>
+      </c>
+      <c r="P30">
+        <v>1346.17</v>
+      </c>
+      <c r="Q30">
+        <v>14298.5</v>
+      </c>
+      <c r="R30">
+        <v>3182.2</v>
+      </c>
+      <c r="S30">
+        <v>3854.8</v>
+      </c>
+      <c r="T30">
+        <v>4747.49</v>
+      </c>
+      <c r="U30">
+        <v>1624.07</v>
+      </c>
+      <c r="V30">
+        <v>13408.56</v>
+      </c>
+      <c r="W30">
+        <v>3211.58</v>
+      </c>
+      <c r="X30">
+        <v>3908.7</v>
+      </c>
+      <c r="Y30">
+        <v>5288.05</v>
+      </c>
+      <c r="Z30">
+        <v>1558.79</v>
+      </c>
+      <c r="AA30">
+        <v>13967.119999999999</v>
+      </c>
+      <c r="AB30">
+        <v>3308.49</v>
+      </c>
+      <c r="AC30">
+        <v>3958.77</v>
+      </c>
+      <c r="AD30">
+        <v>5244.97</v>
+      </c>
+      <c r="AE30">
+        <v>1691.84</v>
+      </c>
+      <c r="AF30">
+        <v>14204.07</v>
+      </c>
+      <c r="AG30">
+        <v>3154.49</v>
+      </c>
+      <c r="AH30">
+        <v>3887.33</v>
+      </c>
+      <c r="AI30">
+        <v>4959.3</v>
+      </c>
+      <c r="AJ30">
+        <v>1493.62</v>
+      </c>
+      <c r="AK30">
+        <v>13494.739999999998</v>
+      </c>
+      <c r="AL30">
+        <v>3308.58</v>
+      </c>
+      <c r="AM30">
+        <v>4053.84</v>
+      </c>
+      <c r="AN30">
+        <v>6083.89</v>
+      </c>
+      <c r="AO30">
+        <v>948.79</v>
+      </c>
+      <c r="AP30">
+        <v>14395.100000000002</v>
+      </c>
+      <c r="AQ30">
+        <v>3151.61</v>
+      </c>
+      <c r="AR30">
+        <v>3877.95</v>
+      </c>
+      <c r="AS30">
+        <v>5828.03</v>
+      </c>
+      <c r="AT30">
+        <v>853.73</v>
+      </c>
+      <c r="AU30">
+        <v>13711.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>1370.0800000000002</v>
+      </c>
+      <c r="D31">
+        <v>1706.4099999999999</v>
+      </c>
+      <c r="E31">
+        <v>1570.8100000000002</v>
+      </c>
+      <c r="F31">
+        <v>22.97</v>
+      </c>
+      <c r="G31">
+        <v>4670.2699999999995</v>
+      </c>
+      <c r="H31">
+        <v>238.28</v>
+      </c>
+      <c r="I31">
+        <v>297.57</v>
+      </c>
+      <c r="J31">
+        <v>263.73</v>
+      </c>
+      <c r="K31">
+        <v>6.16</v>
+      </c>
+      <c r="L31">
+        <v>805.74</v>
+      </c>
+      <c r="M31">
+        <v>146.86000000000001</v>
+      </c>
+      <c r="N31">
+        <v>191.6</v>
+      </c>
+      <c r="O31">
+        <v>243.74</v>
+      </c>
+      <c r="P31">
+        <v>4.42</v>
+      </c>
+      <c r="Q31">
+        <v>586.62</v>
+      </c>
+      <c r="R31">
+        <v>153.78</v>
+      </c>
+      <c r="S31">
+        <v>193.12</v>
+      </c>
+      <c r="T31">
+        <v>199.84</v>
+      </c>
+      <c r="U31">
+        <v>4.25</v>
+      </c>
+      <c r="V31">
+        <v>550.99</v>
+      </c>
+      <c r="W31">
+        <v>169.3</v>
+      </c>
+      <c r="X31">
+        <v>209.39</v>
+      </c>
+      <c r="Y31">
+        <v>205.05</v>
+      </c>
+      <c r="Z31">
+        <v>2.12</v>
+      </c>
+      <c r="AA31">
+        <v>585.86</v>
+      </c>
+      <c r="AB31">
+        <v>158.44</v>
+      </c>
+      <c r="AC31">
+        <v>193.19</v>
+      </c>
+      <c r="AD31">
+        <v>191.61</v>
+      </c>
+      <c r="AE31">
+        <v>1.71</v>
+      </c>
+      <c r="AF31">
+        <v>544.95000000000005</v>
+      </c>
+      <c r="AG31">
+        <v>153.54</v>
+      </c>
+      <c r="AH31">
+        <v>193.05</v>
+      </c>
+      <c r="AI31">
+        <v>186.3</v>
+      </c>
+      <c r="AJ31">
+        <v>1.84</v>
+      </c>
+      <c r="AK31">
+        <v>534.73000000000013</v>
+      </c>
+      <c r="AL31">
+        <v>175.47</v>
+      </c>
+      <c r="AM31">
+        <v>214.68</v>
+      </c>
+      <c r="AN31">
+        <v>152.49</v>
+      </c>
+      <c r="AO31">
+        <v>1.86</v>
+      </c>
+      <c r="AP31">
+        <v>544.5</v>
+      </c>
+      <c r="AQ31">
+        <v>174.41</v>
+      </c>
+      <c r="AR31">
+        <v>213.81</v>
+      </c>
+      <c r="AS31">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="AT31">
+        <v>0.61</v>
+      </c>
+      <c r="AU31">
+        <v>516.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>2.91</v>
+      </c>
+      <c r="D32">
+        <v>5.0200000000000005</v>
+      </c>
+      <c r="E32">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>17.89</v>
+      </c>
+      <c r="H32">
+        <v>0.6</v>
+      </c>
+      <c r="I32">
+        <v>1.47</v>
+      </c>
+      <c r="J32">
+        <v>2.61</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>4.68</v>
+      </c>
+      <c r="M32">
+        <v>0.84</v>
+      </c>
+      <c r="N32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O32">
+        <v>4.97</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>6.92</v>
+      </c>
+      <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
+        <v>0.49</v>
+      </c>
+      <c r="T32">
+        <v>0.09</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>1.08</v>
+      </c>
+      <c r="W32">
+        <v>0.13</v>
+      </c>
+      <c r="X32">
+        <v>0.17</v>
+      </c>
+      <c r="Y32">
+        <v>0.26</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB32">
+        <v>0.17</v>
+      </c>
+      <c r="AC32">
+        <v>0.27</v>
+      </c>
+      <c r="AD32">
+        <v>0.21</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0.65</v>
+      </c>
+      <c r="AG32">
+        <v>0.2</v>
+      </c>
+      <c r="AH32">
+        <v>0.21</v>
+      </c>
+      <c r="AI32">
+        <v>1.17</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1.58</v>
+      </c>
+      <c r="AL32">
+        <v>0.31</v>
+      </c>
+      <c r="AM32">
+        <v>0.93</v>
+      </c>
+      <c r="AN32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.79</v>
+      </c>
+      <c r="AQ32">
+        <v>0.16</v>
+      </c>
+      <c r="AR32">
+        <v>0.37</v>
+      </c>
+      <c r="AS32">
+        <v>0.1</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>8497.3700000000008</v>
+      </c>
+      <c r="D33">
+        <v>10468.02</v>
+      </c>
+      <c r="E33">
+        <v>4676.38</v>
+      </c>
+      <c r="F33">
+        <v>52.269999999999996</v>
+      </c>
+      <c r="G33">
+        <v>23694.040000000005</v>
+      </c>
+      <c r="H33">
+        <v>1228.6199999999999</v>
+      </c>
+      <c r="I33">
+        <v>1517.54</v>
+      </c>
+      <c r="J33">
+        <v>674.29</v>
+      </c>
+      <c r="K33">
+        <v>15.71</v>
+      </c>
+      <c r="L33">
+        <v>3436.16</v>
+      </c>
+      <c r="M33">
+        <v>1007.61</v>
+      </c>
+      <c r="N33">
+        <v>1265.26</v>
+      </c>
+      <c r="O33">
+        <v>932.01</v>
+      </c>
+      <c r="P33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q33">
+        <v>3209.78</v>
+      </c>
+      <c r="R33">
+        <v>1055.46</v>
+      </c>
+      <c r="S33">
+        <v>1304.5999999999999</v>
+      </c>
+      <c r="T33">
+        <v>489.64</v>
+      </c>
+      <c r="U33">
+        <v>6.53</v>
+      </c>
+      <c r="V33">
+        <v>2856.23</v>
+      </c>
+      <c r="W33">
+        <v>998.2</v>
+      </c>
+      <c r="X33">
+        <v>1203.01</v>
+      </c>
+      <c r="Y33">
+        <v>509.74</v>
+      </c>
+      <c r="Z33">
+        <v>10.43</v>
+      </c>
+      <c r="AA33">
+        <v>2721.3799999999997</v>
+      </c>
+      <c r="AB33">
+        <v>991.22</v>
+      </c>
+      <c r="AC33">
+        <v>1220.93</v>
+      </c>
+      <c r="AD33">
+        <v>504.63</v>
+      </c>
+      <c r="AE33">
+        <v>5.78</v>
+      </c>
+      <c r="AF33">
+        <v>2722.5600000000004</v>
+      </c>
+      <c r="AG33">
+        <v>1058.05</v>
+      </c>
+      <c r="AH33">
+        <v>1371.62</v>
+      </c>
+      <c r="AI33">
+        <v>579.88</v>
+      </c>
+      <c r="AJ33">
+        <v>3.08</v>
+      </c>
+      <c r="AK33">
+        <v>3012.63</v>
+      </c>
+      <c r="AL33">
+        <v>1060.6500000000001</v>
+      </c>
+      <c r="AM33">
+        <v>1280.81</v>
+      </c>
+      <c r="AN33">
+        <v>487.66</v>
+      </c>
+      <c r="AO33">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AP33">
+        <v>2833.31</v>
+      </c>
+      <c r="AQ33">
+        <v>1097.56</v>
+      </c>
+      <c r="AR33">
+        <v>1304.25</v>
+      </c>
+      <c r="AS33">
+        <v>498.53</v>
+      </c>
+      <c r="AT33">
+        <v>1.65</v>
+      </c>
+      <c r="AU33">
+        <v>2901.9900000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>24964.74</v>
+      </c>
+      <c r="D34">
+        <v>32164.890000000003</v>
+      </c>
+      <c r="E34">
+        <v>30458.380000000005</v>
+      </c>
+      <c r="F34">
+        <v>4897.6100000000006</v>
+      </c>
+      <c r="G34">
+        <v>92485.62000000001</v>
+      </c>
+      <c r="H34">
+        <v>3815.04</v>
+      </c>
+      <c r="I34">
+        <v>4848.4399999999996</v>
+      </c>
+      <c r="J34">
+        <v>4332.3100000000004</v>
+      </c>
+      <c r="K34">
+        <v>835.19</v>
+      </c>
+      <c r="L34">
+        <v>13830.980000000001</v>
+      </c>
+      <c r="M34">
+        <v>2983.15</v>
+      </c>
+      <c r="N34">
+        <v>3909.9</v>
+      </c>
+      <c r="O34">
+        <v>4688.57</v>
+      </c>
+      <c r="P34">
+        <v>648.29</v>
+      </c>
+      <c r="Q34">
+        <v>12229.91</v>
+      </c>
+      <c r="R34">
+        <v>2886.21</v>
+      </c>
+      <c r="S34">
+        <v>3727.98</v>
+      </c>
+      <c r="T34">
+        <v>3348.63</v>
+      </c>
+      <c r="U34">
+        <v>712.71</v>
+      </c>
+      <c r="V34">
+        <v>10675.529999999999</v>
+      </c>
+      <c r="W34">
+        <v>2987.26</v>
+      </c>
+      <c r="X34">
+        <v>3819.54</v>
+      </c>
+      <c r="Y34">
+        <v>3729.51</v>
+      </c>
+      <c r="Z34">
+        <v>759.23</v>
+      </c>
+      <c r="AA34">
+        <v>11295.54</v>
+      </c>
+      <c r="AB34">
+        <v>3105.19</v>
+      </c>
+      <c r="AC34">
+        <v>4038.01</v>
+      </c>
+      <c r="AD34">
+        <v>3185.78</v>
+      </c>
+      <c r="AE34">
+        <v>728.46</v>
+      </c>
+      <c r="AF34">
+        <v>11057.440000000002</v>
+      </c>
+      <c r="AG34">
+        <v>3069.98</v>
+      </c>
+      <c r="AH34">
+        <v>4018.26</v>
+      </c>
+      <c r="AI34">
+        <v>3581.41</v>
+      </c>
+      <c r="AJ34">
+        <v>742.89</v>
+      </c>
+      <c r="AK34">
+        <v>11412.539999999999</v>
+      </c>
+      <c r="AL34">
+        <v>3108.62</v>
+      </c>
+      <c r="AM34">
+        <v>4038.98</v>
+      </c>
+      <c r="AN34">
+        <v>4150.0200000000004</v>
+      </c>
+      <c r="AO34">
+        <v>290.43</v>
+      </c>
+      <c r="AP34">
+        <v>11588.050000000001</v>
+      </c>
+      <c r="AQ34">
+        <v>3009.29</v>
+      </c>
+      <c r="AR34">
+        <v>3763.78</v>
+      </c>
+      <c r="AS34">
+        <v>3442.15</v>
+      </c>
+      <c r="AT34">
+        <v>180.41</v>
+      </c>
+      <c r="AU34">
+        <v>10395.629999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>264.48999999999995</v>
+      </c>
+      <c r="D35">
+        <v>382.12</v>
+      </c>
+      <c r="E35">
+        <v>1221.45</v>
+      </c>
+      <c r="F35">
+        <v>4.34</v>
+      </c>
+      <c r="G35">
+        <v>1872.4</v>
+      </c>
+      <c r="H35">
+        <v>37.81</v>
+      </c>
+      <c r="I35">
+        <v>57.07</v>
+      </c>
+      <c r="J35">
+        <v>170.97</v>
+      </c>
+      <c r="K35">
+        <v>0.47</v>
+      </c>
+      <c r="L35">
+        <v>266.32000000000005</v>
+      </c>
+      <c r="M35">
+        <v>29.92</v>
+      </c>
+      <c r="N35">
+        <v>45.01</v>
+      </c>
+      <c r="O35">
+        <v>198.85</v>
+      </c>
+      <c r="P35">
+        <v>0.89</v>
+      </c>
+      <c r="Q35">
+        <v>274.66999999999996</v>
+      </c>
+      <c r="R35">
+        <v>31.38</v>
+      </c>
+      <c r="S35">
+        <v>47.54</v>
+      </c>
+      <c r="T35">
+        <v>161.15</v>
+      </c>
+      <c r="U35">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="V35">
+        <v>241.2</v>
+      </c>
+      <c r="W35">
+        <v>32.97</v>
+      </c>
+      <c r="X35">
+        <v>46.59</v>
+      </c>
+      <c r="Y35">
+        <v>164.74</v>
+      </c>
+      <c r="Z35">
+        <v>1.07</v>
+      </c>
+      <c r="AA35">
+        <v>245.37</v>
+      </c>
+      <c r="AB35">
+        <v>31.16</v>
+      </c>
+      <c r="AC35">
+        <v>46.8</v>
+      </c>
+      <c r="AD35">
+        <v>147.1</v>
+      </c>
+      <c r="AE35">
+        <v>0.05</v>
+      </c>
+      <c r="AF35">
+        <v>225.11</v>
+      </c>
+      <c r="AG35">
+        <v>34.75</v>
+      </c>
+      <c r="AH35">
+        <v>47.67</v>
+      </c>
+      <c r="AI35">
+        <v>177.04</v>
+      </c>
+      <c r="AJ35">
+        <v>0.3</v>
+      </c>
+      <c r="AK35">
+        <v>259.76</v>
+      </c>
+      <c r="AL35">
+        <v>35.01</v>
+      </c>
+      <c r="AM35">
+        <v>46.58</v>
+      </c>
+      <c r="AN35">
+        <v>109.78</v>
+      </c>
+      <c r="AO35">
+        <v>0.2</v>
+      </c>
+      <c r="AP35">
+        <v>191.57</v>
+      </c>
+      <c r="AQ35">
+        <v>31.49</v>
+      </c>
+      <c r="AR35">
+        <v>44.86</v>
+      </c>
+      <c r="AS35">
+        <v>91.82</v>
+      </c>
+      <c r="AT35">
+        <v>0.23</v>
+      </c>
+      <c r="AU35">
+        <v>168.39999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>118.58000000000001</v>
+      </c>
+      <c r="D36">
+        <v>149.1</v>
+      </c>
+      <c r="E36">
+        <v>94.839999999999989</v>
+      </c>
+      <c r="F36">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G36">
+        <v>363.52</v>
+      </c>
+      <c r="H36">
+        <v>23.83</v>
+      </c>
+      <c r="I36">
+        <v>30.13</v>
+      </c>
+      <c r="J36">
+        <v>24.03</v>
+      </c>
+      <c r="K36">
+        <v>0.19</v>
+      </c>
+      <c r="L36">
+        <v>78.179999999999993</v>
+      </c>
+      <c r="M36">
+        <v>14.71</v>
+      </c>
+      <c r="N36">
+        <v>18.63</v>
+      </c>
+      <c r="O36">
+        <v>19.52</v>
+      </c>
+      <c r="P36">
+        <v>0.18</v>
+      </c>
+      <c r="Q36">
+        <v>53.04</v>
+      </c>
+      <c r="R36">
+        <v>12.59</v>
+      </c>
+      <c r="S36">
+        <v>15.28</v>
+      </c>
+      <c r="T36">
+        <v>4.12</v>
+      </c>
+      <c r="U36">
+        <v>0.03</v>
+      </c>
+      <c r="V36">
+        <v>32.019999999999996</v>
+      </c>
+      <c r="W36">
+        <v>16.93</v>
+      </c>
+      <c r="X36">
+        <v>20.7</v>
+      </c>
+      <c r="Y36">
+        <v>13.76</v>
+      </c>
+      <c r="Z36">
+        <v>0.21</v>
+      </c>
+      <c r="AA36">
+        <v>51.599999999999994</v>
+      </c>
+      <c r="AB36">
+        <v>12.28</v>
+      </c>
+      <c r="AC36">
+        <v>15.08</v>
+      </c>
+      <c r="AD36">
+        <v>9.44</v>
+      </c>
+      <c r="AE36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF36">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="AG36">
+        <v>12.05</v>
+      </c>
+      <c r="AH36">
+        <v>15.03</v>
+      </c>
+      <c r="AI36">
+        <v>7.77</v>
+      </c>
+      <c r="AJ36">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AK36">
+        <v>34.989999999999995</v>
+      </c>
+      <c r="AL36">
+        <v>12.87</v>
+      </c>
+      <c r="AM36">
+        <v>16.18</v>
+      </c>
+      <c r="AN36">
+        <v>6.9</v>
+      </c>
+      <c r="AO36">
+        <v>0.09</v>
+      </c>
+      <c r="AP36">
+        <v>36.04</v>
+      </c>
+      <c r="AQ36">
+        <v>13.32</v>
+      </c>
+      <c r="AR36">
+        <v>18.07</v>
+      </c>
+      <c r="AS36">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AT36">
+        <v>0.09</v>
+      </c>
+      <c r="AU36">
+        <v>40.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>11541.609999999999</v>
+      </c>
+      <c r="D37">
+        <v>14606.99</v>
+      </c>
+      <c r="E37">
+        <v>13375.43</v>
+      </c>
+      <c r="F37">
+        <v>4020.56</v>
+      </c>
+      <c r="G37">
+        <v>43544.59</v>
+      </c>
+      <c r="H37">
+        <v>1776.04</v>
+      </c>
+      <c r="I37">
+        <v>2230.13</v>
+      </c>
+      <c r="J37">
+        <v>2369.83</v>
+      </c>
+      <c r="K37">
+        <v>607.04</v>
+      </c>
+      <c r="L37">
+        <v>6983.04</v>
+      </c>
+      <c r="M37">
+        <v>1363.47</v>
+      </c>
+      <c r="N37">
+        <v>1715.08</v>
+      </c>
+      <c r="O37">
+        <v>1671.51</v>
+      </c>
+      <c r="P37">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="Q37">
+        <v>5310.13</v>
+      </c>
+      <c r="R37">
+        <v>1335.65</v>
+      </c>
+      <c r="S37">
+        <v>1707.52</v>
+      </c>
+      <c r="T37">
+        <v>1504.51</v>
+      </c>
+      <c r="U37">
+        <v>563.48</v>
+      </c>
+      <c r="V37">
+        <v>5111.16</v>
+      </c>
+      <c r="W37">
+        <v>1404.33</v>
+      </c>
+      <c r="X37">
+        <v>1824.02</v>
+      </c>
+      <c r="Y37">
+        <v>1642.73</v>
+      </c>
+      <c r="Z37">
+        <v>546.08000000000004</v>
+      </c>
+      <c r="AA37">
+        <v>5417.16</v>
+      </c>
+      <c r="AB37">
+        <v>1335.67</v>
+      </c>
+      <c r="AC37">
+        <v>1688.75</v>
+      </c>
+      <c r="AD37">
+        <v>1587.69</v>
+      </c>
+      <c r="AE37">
+        <v>490.91</v>
+      </c>
+      <c r="AF37">
+        <v>5103.0200000000004</v>
+      </c>
+      <c r="AG37">
+        <v>1326.65</v>
+      </c>
+      <c r="AH37">
+        <v>1693.06</v>
+      </c>
+      <c r="AI37">
+        <v>1492.46</v>
+      </c>
+      <c r="AJ37">
+        <v>485.43</v>
+      </c>
+      <c r="AK37">
+        <v>4997.6000000000004</v>
+      </c>
+      <c r="AL37">
+        <v>1567.25</v>
+      </c>
+      <c r="AM37">
+        <v>1939.53</v>
+      </c>
+      <c r="AN37">
+        <v>1737.26</v>
+      </c>
+      <c r="AO37">
+        <v>481.8</v>
+      </c>
+      <c r="AP37">
+        <v>5725.84</v>
+      </c>
+      <c r="AQ37">
+        <v>1432.55</v>
+      </c>
+      <c r="AR37">
+        <v>1808.9</v>
+      </c>
+      <c r="AS37">
+        <v>1369.44</v>
+      </c>
+      <c r="AT37">
+        <v>285.75</v>
+      </c>
+      <c r="AU37">
+        <v>4896.6399999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>7898.53</v>
+      </c>
+      <c r="D38">
+        <v>10158.01</v>
+      </c>
+      <c r="E38">
+        <v>10430.26</v>
+      </c>
+      <c r="F38">
+        <v>1555.3</v>
+      </c>
+      <c r="G38">
+        <v>30042.100000000002</v>
+      </c>
+      <c r="H38">
+        <v>1253.56</v>
+      </c>
+      <c r="I38">
+        <v>1611.43</v>
+      </c>
+      <c r="J38">
+        <v>1578.92</v>
+      </c>
+      <c r="K38">
+        <v>242.52</v>
+      </c>
+      <c r="L38">
+        <v>4686.43</v>
+      </c>
+      <c r="M38">
+        <v>941.23</v>
+      </c>
+      <c r="N38">
+        <v>1189.75</v>
+      </c>
+      <c r="O38">
+        <v>1464.68</v>
+      </c>
+      <c r="P38">
+        <v>207.77</v>
+      </c>
+      <c r="Q38">
+        <v>3803.43</v>
+      </c>
+      <c r="R38">
+        <v>924.15</v>
+      </c>
+      <c r="S38">
+        <v>1225.4000000000001</v>
+      </c>
+      <c r="T38">
+        <v>1228.5899999999999</v>
+      </c>
+      <c r="U38">
+        <v>256.23</v>
+      </c>
+      <c r="V38">
+        <v>3634.3700000000003</v>
+      </c>
+      <c r="W38">
+        <v>957.52</v>
+      </c>
+      <c r="X38">
+        <v>1226.3499999999999</v>
+      </c>
+      <c r="Y38">
+        <v>1348.39</v>
+      </c>
+      <c r="Z38">
+        <v>271.20999999999998</v>
+      </c>
+      <c r="AA38">
+        <v>3803.4700000000003</v>
+      </c>
+      <c r="AB38">
+        <v>1048.75</v>
+      </c>
+      <c r="AC38">
+        <v>1364.26</v>
+      </c>
+      <c r="AD38">
+        <v>1297.05</v>
+      </c>
+      <c r="AE38">
+        <v>278.91000000000003</v>
+      </c>
+      <c r="AF38">
+        <v>3988.9700000000003</v>
+      </c>
+      <c r="AG38">
+        <v>934.79</v>
+      </c>
+      <c r="AH38">
+        <v>1184.4000000000001</v>
+      </c>
+      <c r="AI38">
+        <v>1265.3</v>
+      </c>
+      <c r="AJ38">
+        <v>268.49</v>
+      </c>
+      <c r="AK38">
+        <v>3652.9799999999996</v>
+      </c>
+      <c r="AL38">
+        <v>966.13</v>
+      </c>
+      <c r="AM38">
+        <v>1247.25</v>
+      </c>
+      <c r="AN38">
+        <v>1249.45</v>
+      </c>
+      <c r="AO38">
+        <v>26.85</v>
+      </c>
+      <c r="AP38">
+        <v>3489.68</v>
+      </c>
+      <c r="AQ38">
+        <v>872.4</v>
+      </c>
+      <c r="AR38">
+        <v>1109.17</v>
+      </c>
+      <c r="AS38">
+        <v>997.88</v>
+      </c>
+      <c r="AT38">
+        <v>3.32</v>
+      </c>
+      <c r="AU38">
+        <v>2982.7700000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>140.57</v>
+      </c>
+      <c r="D39">
+        <v>192.98999999999998</v>
+      </c>
+      <c r="E39">
+        <v>39.78</v>
+      </c>
+      <c r="F39">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="G39">
+        <v>373.67999999999995</v>
+      </c>
+      <c r="H39">
+        <v>29.65</v>
+      </c>
+      <c r="I39">
+        <v>37.08</v>
+      </c>
+      <c r="J39">
+        <v>4.84</v>
+      </c>
+      <c r="K39">
+        <v>0.08</v>
+      </c>
+      <c r="L39">
+        <v>71.649999999999991</v>
+      </c>
+      <c r="M39">
+        <v>8.58</v>
+      </c>
+      <c r="N39">
+        <v>11.35</v>
+      </c>
+      <c r="O39">
+        <v>9.35</v>
+      </c>
+      <c r="P39">
+        <v>0.03</v>
+      </c>
+      <c r="Q39">
+        <v>29.310000000000002</v>
+      </c>
+      <c r="R39">
+        <v>11.07</v>
+      </c>
+      <c r="S39">
+        <v>13.76</v>
+      </c>
+      <c r="T39">
+        <v>3.14</v>
+      </c>
+      <c r="U39">
+        <v>0.06</v>
+      </c>
+      <c r="V39">
+        <v>28.029999999999998</v>
+      </c>
+      <c r="W39">
+        <v>16.14</v>
+      </c>
+      <c r="X39">
+        <v>22.23</v>
+      </c>
+      <c r="Y39">
+        <v>3.53</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>41.900000000000006</v>
+      </c>
+      <c r="AB39">
+        <v>13.25</v>
+      </c>
+      <c r="AC39">
+        <v>18.11</v>
+      </c>
+      <c r="AD39">
+        <v>3.58</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>34.94</v>
+      </c>
+      <c r="AG39">
+        <v>15.78</v>
+      </c>
+      <c r="AH39">
+        <v>22.97</v>
+      </c>
+      <c r="AI39">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AJ39">
+        <v>0.12</v>
+      </c>
+      <c r="AK39">
+        <v>43.639999999999993</v>
+      </c>
+      <c r="AL39">
+        <v>29.94</v>
+      </c>
+      <c r="AM39">
+        <v>42.79</v>
+      </c>
+      <c r="AN39">
+        <v>5.68</v>
+      </c>
+      <c r="AO39">
+        <v>0.02</v>
+      </c>
+      <c r="AP39">
+        <v>78.429999999999993</v>
+      </c>
+      <c r="AQ39">
+        <v>16.16</v>
+      </c>
+      <c r="AR39">
+        <v>24.7</v>
+      </c>
+      <c r="AS39">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AT39">
+        <v>0.03</v>
+      </c>
+      <c r="AU39">
+        <v>45.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>164.57</v>
+      </c>
+      <c r="D40">
+        <v>223.08999999999997</v>
+      </c>
+      <c r="E40">
+        <v>1376.9</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1764.56</v>
+      </c>
+      <c r="H40">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="I40">
+        <v>23.8</v>
+      </c>
+      <c r="J40">
+        <v>217.74</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>261.35000000000002</v>
+      </c>
+      <c r="M40">
+        <v>22.51</v>
+      </c>
+      <c r="N40">
+        <v>26.91</v>
+      </c>
+      <c r="O40">
+        <v>162.63</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>212.05</v>
+      </c>
+      <c r="R40">
+        <v>29.63</v>
+      </c>
+      <c r="S40">
+        <v>40.74</v>
+      </c>
+      <c r="T40">
+        <v>157.44999999999999</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>227.82</v>
+      </c>
+      <c r="W40">
+        <v>22.22</v>
+      </c>
+      <c r="X40">
+        <v>33.28</v>
+      </c>
+      <c r="Y40">
+        <v>156.82</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>212.32</v>
+      </c>
+      <c r="AB40">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="AC40">
+        <v>23.92</v>
+      </c>
+      <c r="AD40">
+        <v>158.44999999999999</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>199.54</v>
+      </c>
+      <c r="AG40">
+        <v>14.34</v>
+      </c>
+      <c r="AH40">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AI40">
+        <v>172.97</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>206.41</v>
+      </c>
+      <c r="AL40">
+        <v>28.76</v>
+      </c>
+      <c r="AM40">
+        <v>39.14</v>
+      </c>
+      <c r="AN40">
+        <v>178.65</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>246.55</v>
+      </c>
+      <c r="AQ40">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="AR40">
+        <v>16.2</v>
+      </c>
+      <c r="AS40">
+        <v>172.19</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>198.51999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2843.2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>2843.2</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>299.58</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>299.58</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>323.77999999999997</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>323.77999999999997</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>317.08999999999997</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>317.08999999999997</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>310.98</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>310.98</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>396.32</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>396.32</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>391.55</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>391.55</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>365.78</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>365.78</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>438.12</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>438.12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42">
+        <v>293207.34000000003</v>
+      </c>
+      <c r="D42">
+        <v>362947.71</v>
+      </c>
+      <c r="E42">
+        <v>429934.33000000013</v>
+      </c>
+      <c r="F42">
+        <v>83002.540000000008</v>
+      </c>
+      <c r="G42">
+        <v>1169091.9200000002</v>
+      </c>
+      <c r="H42">
+        <v>48633.729999999996</v>
+      </c>
+      <c r="I42">
+        <v>59372.430000000008</v>
+      </c>
+      <c r="J42">
+        <v>69504.38</v>
+      </c>
+      <c r="K42">
+        <v>12292.889999999998</v>
+      </c>
+      <c r="L42">
+        <v>189803.42999999996</v>
+      </c>
+      <c r="M42">
+        <v>35433.75</v>
+      </c>
+      <c r="N42">
+        <v>43901.590000000011</v>
+      </c>
+      <c r="O42">
+        <v>58766.679999999986</v>
+      </c>
+      <c r="P42">
+        <v>11682.609999999999</v>
+      </c>
+      <c r="Q42">
+        <v>149784.63</v>
+      </c>
+      <c r="R42">
+        <v>34557.629999999997</v>
+      </c>
+      <c r="S42">
+        <v>43267.869999999995</v>
+      </c>
+      <c r="T42">
+        <v>48680.179999999986</v>
+      </c>
+      <c r="U42">
+        <v>12400.33</v>
+      </c>
+      <c r="V42">
+        <v>138906.00999999998</v>
+      </c>
+      <c r="W42">
+        <v>35470.01</v>
+      </c>
+      <c r="X42">
+        <v>44059.169999999991</v>
+      </c>
+      <c r="Y42">
+        <v>51910.210000000014</v>
+      </c>
+      <c r="Z42">
+        <v>11583.77</v>
+      </c>
+      <c r="AA42">
+        <v>143023.16</v>
+      </c>
+      <c r="AB42">
+        <v>34076.089999999997</v>
+      </c>
+      <c r="AC42">
+        <v>42854.490000000005</v>
+      </c>
+      <c r="AD42">
+        <v>48639.280000000006</v>
+      </c>
+      <c r="AE42">
+        <v>11391.759999999998</v>
+      </c>
+      <c r="AF42">
+        <v>136961.62</v>
+      </c>
+      <c r="AG42">
+        <v>33645.53</v>
+      </c>
+      <c r="AH42">
+        <v>41835.650000000009</v>
+      </c>
+      <c r="AI42">
+        <v>49852.89</v>
+      </c>
+      <c r="AJ42">
+        <v>11190.429999999998</v>
+      </c>
+      <c r="AK42">
+        <v>136524.5</v>
+      </c>
+      <c r="AL42">
+        <v>36547.30000000001</v>
+      </c>
+      <c r="AM42">
+        <v>45134.090000000004</v>
+      </c>
+      <c r="AN42">
+        <v>55646.84</v>
+      </c>
+      <c r="AO42">
+        <v>7723.7700000000013</v>
+      </c>
+      <c r="AP42">
+        <v>145051.99999999997</v>
+      </c>
+      <c r="AQ42">
+        <v>34843.30000000001</v>
+      </c>
+      <c r="AR42">
+        <v>42522.419999999991</v>
+      </c>
+      <c r="AS42">
+        <v>46933.87000000001</v>
+      </c>
+      <c r="AT42">
+        <v>4736.9799999999996</v>
+      </c>
+      <c r="AU42">
+        <v>129036.57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
